--- a/s_d/麻吉.xlsx
+++ b/s_d/麻吉.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\王鹏远\Desktop\Electronic\s_d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D114A208-E349-456E-A803-73353123A54B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE09981A-30FD-4644-9F16-79BEB14F495E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="714" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="714" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="19.10.29" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="19.11.07" sheetId="10" r:id="rId10"/>
     <sheet name="19.11.08" sheetId="11" r:id="rId11"/>
     <sheet name="19.11.9" sheetId="12" r:id="rId12"/>
+    <sheet name="19.11.10" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3252" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3554" uniqueCount="71">
   <si>
     <t>ID</t>
   </si>
@@ -293,12 +294,51 @@
     <t>总剩余金额：-3244.34</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>微信收到：</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行收到：</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>总刷单金额：</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>总剩余金额：</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>未付款</t>
+  </si>
+  <si>
+    <t>待支付</t>
+  </si>
+  <si>
+    <r>
+      <t>提现费：2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -350,6 +390,12 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3164,7 +3210,7 @@
   <dimension ref="A1:M89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5:M8"/>
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -10572,8 +10618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0171964E-1E34-45D5-A044-1E154A8FFDD4}">
   <dimension ref="A1:M85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M5" sqref="M5:M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -13570,6 +13616,3517 @@
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2C2FB4C-F76E-4972-A81F-77AFEE0BCA18}">
+  <dimension ref="A2:Q100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="13" max="13" width="12.88671875" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>32776</v>
+      </c>
+      <c r="B2">
+        <v>15874</v>
+      </c>
+      <c r="C2">
+        <v>2.01911100919431E+20</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>324</v>
+      </c>
+      <c r="F2">
+        <v>324</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="32">
+        <v>43779.388194444444</v>
+      </c>
+      <c r="J2" s="32">
+        <v>43779.388657407406</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>32775</v>
+      </c>
+      <c r="B3">
+        <v>15874</v>
+      </c>
+      <c r="C3">
+        <v>2.0191110091934099E+20</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>44</v>
+      </c>
+      <c r="F3">
+        <v>44</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="32">
+        <v>43779.388194444444</v>
+      </c>
+      <c r="J3" s="32">
+        <v>43779.388553240744</v>
+      </c>
+      <c r="K3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>32774</v>
+      </c>
+      <c r="B4">
+        <v>15874</v>
+      </c>
+      <c r="C4">
+        <v>2.01911100919261E+20</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>316</v>
+      </c>
+      <c r="F4">
+        <v>316</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="32">
+        <v>43779.388194444444</v>
+      </c>
+      <c r="J4" s="32">
+        <v>43779.388449074075</v>
+      </c>
+      <c r="K4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>32773</v>
+      </c>
+      <c r="B5">
+        <v>15874</v>
+      </c>
+      <c r="C5">
+        <v>2.0191110091917099E+20</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>2718</v>
+      </c>
+      <c r="F5">
+        <v>2718</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="32">
+        <v>43779.388194444444</v>
+      </c>
+      <c r="J5" s="32">
+        <v>43779.388356481482</v>
+      </c>
+      <c r="K5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="N5">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>32772</v>
+      </c>
+      <c r="B6">
+        <v>15874</v>
+      </c>
+      <c r="C6">
+        <v>2.01911100919091E+20</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>264</v>
+      </c>
+      <c r="F6">
+        <v>264</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="32">
+        <v>43779.388194444444</v>
+      </c>
+      <c r="J6" s="32">
+        <v>43779.388275462959</v>
+      </c>
+      <c r="K6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="N6">
+        <v>20000</v>
+      </c>
+      <c r="O6" s="36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>32771</v>
+      </c>
+      <c r="B7">
+        <v>15874</v>
+      </c>
+      <c r="C7">
+        <v>2.0191110091902101E+20</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>2014</v>
+      </c>
+      <c r="F7">
+        <v>2014</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="32">
+        <v>43779.388194444444</v>
+      </c>
+      <c r="J7" s="32">
+        <v>43779.388194444444</v>
+      </c>
+      <c r="K7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="N7">
+        <v>67186.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>32770</v>
+      </c>
+      <c r="B8">
+        <v>15874</v>
+      </c>
+      <c r="C8">
+        <v>2.0191110091854099E+20</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>1504</v>
+      </c>
+      <c r="F8">
+        <v>1504</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="32">
+        <v>43779.387499999997</v>
+      </c>
+      <c r="J8" s="32">
+        <v>43779.388101851851</v>
+      </c>
+      <c r="K8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="N8">
+        <v>-450.84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>32769</v>
+      </c>
+      <c r="B9">
+        <v>15874</v>
+      </c>
+      <c r="C9">
+        <v>2.01911100918471E+20</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>1028</v>
+      </c>
+      <c r="F9">
+        <v>1028</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="32">
+        <v>43779.387499999997</v>
+      </c>
+      <c r="J9" s="32">
+        <v>43779.388009259259</v>
+      </c>
+      <c r="K9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>32768</v>
+      </c>
+      <c r="B10">
+        <v>15874</v>
+      </c>
+      <c r="C10">
+        <v>2.0191110091839101E+20</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>1324</v>
+      </c>
+      <c r="F10">
+        <v>1324</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="32">
+        <v>43779.387499999997</v>
+      </c>
+      <c r="J10" s="32">
+        <v>43779.387916666667</v>
+      </c>
+      <c r="K10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>32767</v>
+      </c>
+      <c r="B11">
+        <v>15874</v>
+      </c>
+      <c r="C11">
+        <v>2.0191110091831099E+20</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>602</v>
+      </c>
+      <c r="F11">
+        <v>602</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="32">
+        <v>43779.387499999997</v>
+      </c>
+      <c r="J11" s="32">
+        <v>43779.387835648151</v>
+      </c>
+      <c r="K11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>32766</v>
+      </c>
+      <c r="B12">
+        <v>15874</v>
+      </c>
+      <c r="C12">
+        <v>2.0191110091823101E+20</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>506</v>
+      </c>
+      <c r="F12">
+        <v>506</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="32">
+        <v>43779.387499999997</v>
+      </c>
+      <c r="J12" s="32">
+        <v>43779.387731481482</v>
+      </c>
+      <c r="K12" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q12" s="36"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>32765</v>
+      </c>
+      <c r="B13">
+        <v>15874</v>
+      </c>
+      <c r="C13">
+        <v>2.0191110091816101E+20</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>988</v>
+      </c>
+      <c r="F13">
+        <v>988</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="32">
+        <v>43779.387499999997</v>
+      </c>
+      <c r="J13" s="32">
+        <v>43779.387638888889</v>
+      </c>
+      <c r="K13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>32764</v>
+      </c>
+      <c r="B14">
+        <v>15874</v>
+      </c>
+      <c r="C14">
+        <v>2.01911100918071E+20</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>326</v>
+      </c>
+      <c r="F14">
+        <v>326</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="32">
+        <v>43779.387499999997</v>
+      </c>
+      <c r="J14" s="32">
+        <v>43779.387557870374</v>
+      </c>
+      <c r="K14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>32763</v>
+      </c>
+      <c r="B15">
+        <v>15874</v>
+      </c>
+      <c r="C15">
+        <v>2.0191110091800101E+20</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>382</v>
+      </c>
+      <c r="F15">
+        <v>382</v>
+      </c>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="32">
+        <v>43779.387499999997</v>
+      </c>
+      <c r="J15" s="32">
+        <v>43779.387465277781</v>
+      </c>
+      <c r="K15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>32762</v>
+      </c>
+      <c r="B16">
+        <v>15874</v>
+      </c>
+      <c r="C16">
+        <v>2.0191110091753098E+20</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>1322</v>
+      </c>
+      <c r="F16">
+        <v>1322</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="32">
+        <v>43779.386805555558</v>
+      </c>
+      <c r="J16" s="32">
+        <v>43779.387395833335</v>
+      </c>
+      <c r="K16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>32761</v>
+      </c>
+      <c r="B17">
+        <v>15874</v>
+      </c>
+      <c r="C17">
+        <v>2.01911100917451E+20</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>96</v>
+      </c>
+      <c r="F17">
+        <v>96</v>
+      </c>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="32">
+        <v>43779.386805555558</v>
+      </c>
+      <c r="J17" s="32">
+        <v>43779.387280092589</v>
+      </c>
+      <c r="K17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>32760</v>
+      </c>
+      <c r="B18">
+        <v>15874</v>
+      </c>
+      <c r="C18">
+        <v>2.0191110091736098E+20</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>1592</v>
+      </c>
+      <c r="F18">
+        <v>1592</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="32">
+        <v>43779.386805555558</v>
+      </c>
+      <c r="J18" s="32">
+        <v>43779.387175925927</v>
+      </c>
+      <c r="K18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>32759</v>
+      </c>
+      <c r="B19">
+        <v>15874</v>
+      </c>
+      <c r="C19">
+        <v>2.0191110091726101E+20</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>2278</v>
+      </c>
+      <c r="F19">
+        <v>2278</v>
+      </c>
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="32">
+        <v>43779.386805555558</v>
+      </c>
+      <c r="J19" s="32">
+        <v>43779.387060185189</v>
+      </c>
+      <c r="K19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>32758</v>
+      </c>
+      <c r="B20">
+        <v>15874</v>
+      </c>
+      <c r="C20">
+        <v>2.0191110091714101E+20</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>2062</v>
+      </c>
+      <c r="F20">
+        <v>2062</v>
+      </c>
+      <c r="G20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="32">
+        <v>43779.386805555558</v>
+      </c>
+      <c r="J20" s="32">
+        <v>43779.386932870373</v>
+      </c>
+      <c r="K20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>32757</v>
+      </c>
+      <c r="B21">
+        <v>15874</v>
+      </c>
+      <c r="C21">
+        <v>2.0191110091706099E+20</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>950</v>
+      </c>
+      <c r="F21">
+        <v>950</v>
+      </c>
+      <c r="G21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="32">
+        <v>43779.386805555558</v>
+      </c>
+      <c r="J21" s="32">
+        <v>43779.386817129627</v>
+      </c>
+      <c r="K21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>32756</v>
+      </c>
+      <c r="B22">
+        <v>15874</v>
+      </c>
+      <c r="C22">
+        <v>2.0191110091655099E+20</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>254</v>
+      </c>
+      <c r="F22">
+        <v>254</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="32">
+        <v>43779.386111111111</v>
+      </c>
+      <c r="J22" s="32">
+        <v>43779.386724537035</v>
+      </c>
+      <c r="K22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>32755</v>
+      </c>
+      <c r="B23">
+        <v>15874</v>
+      </c>
+      <c r="C23">
+        <v>2.01911100916481E+20</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <v>204</v>
+      </c>
+      <c r="F23">
+        <v>204</v>
+      </c>
+      <c r="G23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="32">
+        <v>43779.386111111111</v>
+      </c>
+      <c r="J23" s="32">
+        <v>43779.386631944442</v>
+      </c>
+      <c r="K23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>32754</v>
+      </c>
+      <c r="B24">
+        <v>15874</v>
+      </c>
+      <c r="C24">
+        <v>2.0191110091639099E+20</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>416</v>
+      </c>
+      <c r="F24">
+        <v>416</v>
+      </c>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="32">
+        <v>43779.386111111111</v>
+      </c>
+      <c r="J24" s="32">
+        <v>43779.38652777778</v>
+      </c>
+      <c r="K24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>32753</v>
+      </c>
+      <c r="B25">
+        <v>15874</v>
+      </c>
+      <c r="C25">
+        <v>2.01911100916251E+20</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>1016</v>
+      </c>
+      <c r="F25">
+        <v>1016</v>
+      </c>
+      <c r="G25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="32">
+        <v>43779.386111111111</v>
+      </c>
+      <c r="J25" s="32">
+        <v>43779.386354166665</v>
+      </c>
+      <c r="K25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>32752</v>
+      </c>
+      <c r="B26">
+        <v>15874</v>
+      </c>
+      <c r="C26">
+        <v>2.0191110091616099E+20</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>58</v>
+      </c>
+      <c r="F26">
+        <v>58</v>
+      </c>
+      <c r="G26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="32">
+        <v>43779.386111111111</v>
+      </c>
+      <c r="J26" s="32">
+        <v>43779.386273148149</v>
+      </c>
+      <c r="K26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>32751</v>
+      </c>
+      <c r="B27">
+        <v>15874</v>
+      </c>
+      <c r="C27">
+        <v>2.0191110091607101E+20</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>600</v>
+      </c>
+      <c r="F27">
+        <v>600</v>
+      </c>
+      <c r="G27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="32">
+        <v>43779.386111111111</v>
+      </c>
+      <c r="J27" s="32">
+        <v>43779.386145833334</v>
+      </c>
+      <c r="K27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>32750</v>
+      </c>
+      <c r="B28">
+        <v>15874</v>
+      </c>
+      <c r="C28">
+        <v>2.01911100915571E+20</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <v>656</v>
+      </c>
+      <c r="F28">
+        <v>656</v>
+      </c>
+      <c r="G28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="32">
+        <v>43779.386111111111</v>
+      </c>
+      <c r="J28" s="32">
+        <v>43779.386030092595</v>
+      </c>
+      <c r="K28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>32749</v>
+      </c>
+      <c r="B29">
+        <v>15874</v>
+      </c>
+      <c r="C29">
+        <v>2.01911100915451E+20</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>66</v>
+      </c>
+      <c r="F29">
+        <v>66</v>
+      </c>
+      <c r="G29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="32">
+        <v>43779.385416666664</v>
+      </c>
+      <c r="J29" s="32">
+        <v>43779.385844907411</v>
+      </c>
+      <c r="K29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>32747</v>
+      </c>
+      <c r="B30">
+        <v>15874</v>
+      </c>
+      <c r="C30">
+        <v>2.0191110091456099E+20</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>172</v>
+      </c>
+      <c r="F30">
+        <v>172</v>
+      </c>
+      <c r="G30" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="32">
+        <v>43779.385416666664</v>
+      </c>
+      <c r="J30" s="32">
+        <v>43779.385324074072</v>
+      </c>
+      <c r="K30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>32746</v>
+      </c>
+      <c r="B31">
+        <v>15874</v>
+      </c>
+      <c r="C31">
+        <v>2.0191110091446102E+20</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>559</v>
+      </c>
+      <c r="F31">
+        <v>559</v>
+      </c>
+      <c r="G31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="32">
+        <v>43779.384722222225</v>
+      </c>
+      <c r="J31" s="32">
+        <v>43779.384930555556</v>
+      </c>
+      <c r="K31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>32745</v>
+      </c>
+      <c r="B32">
+        <v>15874</v>
+      </c>
+      <c r="C32">
+        <v>2.01911100914141E+20</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>252</v>
+      </c>
+      <c r="F32">
+        <v>252</v>
+      </c>
+      <c r="G32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="32">
+        <v>43779.384722222225</v>
+      </c>
+      <c r="J32" s="32">
+        <v>43779.384814814817</v>
+      </c>
+      <c r="K32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32744</v>
+      </c>
+      <c r="B33">
+        <v>15874</v>
+      </c>
+      <c r="C33">
+        <v>2.0191110091402101E+20</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>398</v>
+      </c>
+      <c r="F33">
+        <v>398</v>
+      </c>
+      <c r="G33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="32">
+        <v>43779.384722222225</v>
+      </c>
+      <c r="J33" s="32">
+        <v>43779.384722222225</v>
+      </c>
+      <c r="K33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32743</v>
+      </c>
+      <c r="B34">
+        <v>15874</v>
+      </c>
+      <c r="C34">
+        <v>2.0191110091353099E+20</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>1308</v>
+      </c>
+      <c r="F34">
+        <v>1308</v>
+      </c>
+      <c r="G34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" s="32">
+        <v>43779.384027777778</v>
+      </c>
+      <c r="J34" s="32">
+        <v>43779.384606481479</v>
+      </c>
+      <c r="K34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>32742</v>
+      </c>
+      <c r="B35">
+        <v>15874</v>
+      </c>
+      <c r="C35">
+        <v>2.0191110091344101E+20</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>157</v>
+      </c>
+      <c r="F35">
+        <v>157</v>
+      </c>
+      <c r="G35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="32">
+        <v>43779.384027777778</v>
+      </c>
+      <c r="J35" s="32">
+        <v>43779.384479166663</v>
+      </c>
+      <c r="K35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>32741</v>
+      </c>
+      <c r="B36">
+        <v>15874</v>
+      </c>
+      <c r="C36">
+        <v>2.0191110091332098E+20</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>288</v>
+      </c>
+      <c r="F36">
+        <v>288</v>
+      </c>
+      <c r="G36" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" s="32">
+        <v>43779.384027777778</v>
+      </c>
+      <c r="J36" s="32">
+        <v>43779.384340277778</v>
+      </c>
+      <c r="K36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>32740</v>
+      </c>
+      <c r="B37">
+        <v>15874</v>
+      </c>
+      <c r="C37">
+        <v>2.0191110091320099E+20</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>1011</v>
+      </c>
+      <c r="F37">
+        <v>1011</v>
+      </c>
+      <c r="G37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" s="32">
+        <v>43779.384027777778</v>
+      </c>
+      <c r="J37" s="32">
+        <v>43779.38422453704</v>
+      </c>
+      <c r="K37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>32739</v>
+      </c>
+      <c r="B38">
+        <v>15874</v>
+      </c>
+      <c r="C38">
+        <v>2.0191110091310101E+20</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>465</v>
+      </c>
+      <c r="F38">
+        <v>465</v>
+      </c>
+      <c r="G38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" s="32">
+        <v>43779.384027777778</v>
+      </c>
+      <c r="J38" s="32">
+        <v>43779.384120370371</v>
+      </c>
+      <c r="K38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>32738</v>
+      </c>
+      <c r="B39">
+        <v>15874</v>
+      </c>
+      <c r="C39">
+        <v>2.0191110091302099E+20</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>752</v>
+      </c>
+      <c r="F39">
+        <v>752</v>
+      </c>
+      <c r="G39" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" s="32">
+        <v>43779.384027777778</v>
+      </c>
+      <c r="J39" s="32">
+        <v>43779.384016203701</v>
+      </c>
+      <c r="K39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>32737</v>
+      </c>
+      <c r="B40">
+        <v>15874</v>
+      </c>
+      <c r="C40">
+        <v>2.0191110091252099E+20</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>399</v>
+      </c>
+      <c r="F40">
+        <v>399</v>
+      </c>
+      <c r="G40" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" s="32">
+        <v>43779.383333333331</v>
+      </c>
+      <c r="J40" s="32">
+        <v>43779.383912037039</v>
+      </c>
+      <c r="K40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>32736</v>
+      </c>
+      <c r="B41">
+        <v>15874</v>
+      </c>
+      <c r="C41">
+        <v>2.01911100912441E+20</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>117</v>
+      </c>
+      <c r="F41">
+        <v>117</v>
+      </c>
+      <c r="G41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" s="32">
+        <v>43779.383333333331</v>
+      </c>
+      <c r="J41" s="32">
+        <v>43779.38380787037</v>
+      </c>
+      <c r="K41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>32735</v>
+      </c>
+      <c r="B42">
+        <v>15874</v>
+      </c>
+      <c r="C42">
+        <v>2.0191110091235099E+20</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>1124</v>
+      </c>
+      <c r="F42">
+        <v>1124</v>
+      </c>
+      <c r="G42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" s="32">
+        <v>43779.383333333331</v>
+      </c>
+      <c r="J42" s="32">
+        <v>43779.383715277778</v>
+      </c>
+      <c r="K42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>32734</v>
+      </c>
+      <c r="B43">
+        <v>15874</v>
+      </c>
+      <c r="C43">
+        <v>2.01911100912271E+20</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>267</v>
+      </c>
+      <c r="F43">
+        <v>267</v>
+      </c>
+      <c r="G43" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" s="32">
+        <v>43779.383333333331</v>
+      </c>
+      <c r="J43" s="32">
+        <v>43779.383611111109</v>
+      </c>
+      <c r="K43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>32733</v>
+      </c>
+      <c r="B44">
+        <v>15874</v>
+      </c>
+      <c r="C44">
+        <v>2.0191110091219101E+20</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>423</v>
+      </c>
+      <c r="F44">
+        <v>423</v>
+      </c>
+      <c r="G44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" t="s">
+        <v>14</v>
+      </c>
+      <c r="I44" s="32">
+        <v>43779.383333333331</v>
+      </c>
+      <c r="J44" s="32">
+        <v>43779.383530092593</v>
+      </c>
+      <c r="K44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>32732</v>
+      </c>
+      <c r="B45">
+        <v>15874</v>
+      </c>
+      <c r="C45">
+        <v>2.0191110091211099E+20</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>970</v>
+      </c>
+      <c r="F45">
+        <v>970</v>
+      </c>
+      <c r="G45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45" s="32">
+        <v>43779.383333333331</v>
+      </c>
+      <c r="J45" s="32">
+        <v>43779.383425925924</v>
+      </c>
+      <c r="K45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>32731</v>
+      </c>
+      <c r="B46">
+        <v>15874</v>
+      </c>
+      <c r="C46">
+        <v>2.0191110091202101E+20</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>298</v>
+      </c>
+      <c r="F46">
+        <v>298</v>
+      </c>
+      <c r="G46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46" s="32">
+        <v>43779.383333333331</v>
+      </c>
+      <c r="J46" s="32">
+        <v>43779.383321759262</v>
+      </c>
+      <c r="K46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>32730</v>
+      </c>
+      <c r="B47">
+        <v>15874</v>
+      </c>
+      <c r="C47">
+        <v>2.01911100911531E+20</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>897</v>
+      </c>
+      <c r="F47">
+        <v>897</v>
+      </c>
+      <c r="G47" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47" s="32">
+        <v>43779.382638888892</v>
+      </c>
+      <c r="J47" s="32">
+        <v>43779.383171296293</v>
+      </c>
+      <c r="K47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>32729</v>
+      </c>
+      <c r="B48">
+        <v>15874</v>
+      </c>
+      <c r="C48">
+        <v>2.01911100911411E+20</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>106</v>
+      </c>
+      <c r="F48">
+        <v>106</v>
+      </c>
+      <c r="G48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48" s="32">
+        <v>43779.382638888892</v>
+      </c>
+      <c r="J48" s="32">
+        <v>43779.383090277777</v>
+      </c>
+      <c r="K48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>32728</v>
+      </c>
+      <c r="B49">
+        <v>15874</v>
+      </c>
+      <c r="C49">
+        <v>2.0191110091133098E+20</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>284</v>
+      </c>
+      <c r="F49">
+        <v>284</v>
+      </c>
+      <c r="G49" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" t="s">
+        <v>14</v>
+      </c>
+      <c r="I49" s="32">
+        <v>43779.382638888892</v>
+      </c>
+      <c r="J49" s="32">
+        <v>43779.382986111108</v>
+      </c>
+      <c r="K49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>32727</v>
+      </c>
+      <c r="B50">
+        <v>15874</v>
+      </c>
+      <c r="C50">
+        <v>2.01911100911241E+20</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>55</v>
+      </c>
+      <c r="F50">
+        <v>55</v>
+      </c>
+      <c r="G50" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" t="s">
+        <v>14</v>
+      </c>
+      <c r="I50" s="32">
+        <v>43779.382638888892</v>
+      </c>
+      <c r="J50" s="32">
+        <v>43779.382893518516</v>
+      </c>
+      <c r="K50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>32726</v>
+      </c>
+      <c r="B51">
+        <v>15874</v>
+      </c>
+      <c r="C51">
+        <v>2.0191110091115099E+20</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>746</v>
+      </c>
+      <c r="F51">
+        <v>746</v>
+      </c>
+      <c r="G51" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" s="32">
+        <v>43779.382638888892</v>
+      </c>
+      <c r="J51" s="32">
+        <v>43779.382777777777</v>
+      </c>
+      <c r="K51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>32725</v>
+      </c>
+      <c r="B52">
+        <v>15874</v>
+      </c>
+      <c r="C52">
+        <v>2.01911100911071E+20</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>258</v>
+      </c>
+      <c r="F52">
+        <v>258</v>
+      </c>
+      <c r="G52" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" s="32">
+        <v>43779.382638888892</v>
+      </c>
+      <c r="J52" s="32">
+        <v>43779.382685185185</v>
+      </c>
+      <c r="K52" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>32724</v>
+      </c>
+      <c r="B53">
+        <v>15874</v>
+      </c>
+      <c r="C53">
+        <v>2.0191110091058099E+20</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>490</v>
+      </c>
+      <c r="F53">
+        <v>490</v>
+      </c>
+      <c r="G53" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" t="s">
+        <v>14</v>
+      </c>
+      <c r="I53" s="32">
+        <v>43779.382638888892</v>
+      </c>
+      <c r="J53" s="32">
+        <v>43779.382592592592</v>
+      </c>
+      <c r="K53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>32723</v>
+      </c>
+      <c r="B54">
+        <v>15874</v>
+      </c>
+      <c r="C54">
+        <v>2.01911100910501E+20</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>719</v>
+      </c>
+      <c r="F54">
+        <v>719</v>
+      </c>
+      <c r="G54" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" t="s">
+        <v>14</v>
+      </c>
+      <c r="I54" s="32">
+        <v>43779.381944444445</v>
+      </c>
+      <c r="J54" s="32">
+        <v>43779.382488425923</v>
+      </c>
+      <c r="K54" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>32722</v>
+      </c>
+      <c r="B55">
+        <v>15874</v>
+      </c>
+      <c r="C55">
+        <v>2.0191110091042098E+20</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>84</v>
+      </c>
+      <c r="F55">
+        <v>84</v>
+      </c>
+      <c r="G55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" t="s">
+        <v>14</v>
+      </c>
+      <c r="I55" s="32">
+        <v>43779.381944444445</v>
+      </c>
+      <c r="J55" s="32">
+        <v>43779.382395833331</v>
+      </c>
+      <c r="K55" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>32721</v>
+      </c>
+      <c r="B56">
+        <v>15874</v>
+      </c>
+      <c r="C56">
+        <v>2.01911100910331E+20</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>300</v>
+      </c>
+      <c r="F56">
+        <v>300</v>
+      </c>
+      <c r="G56" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" t="s">
+        <v>14</v>
+      </c>
+      <c r="I56" s="32">
+        <v>43779.381944444445</v>
+      </c>
+      <c r="J56" s="32">
+        <v>43779.382280092592</v>
+      </c>
+      <c r="K56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>32720</v>
+      </c>
+      <c r="B57">
+        <v>15874</v>
+      </c>
+      <c r="C57">
+        <v>2.01911100910171E+20</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>459</v>
+      </c>
+      <c r="F57">
+        <v>459</v>
+      </c>
+      <c r="G57" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57" t="s">
+        <v>14</v>
+      </c>
+      <c r="I57" s="32">
+        <v>43779.381944444445</v>
+      </c>
+      <c r="J57" s="32">
+        <v>43779.382118055553</v>
+      </c>
+      <c r="K57" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>32719</v>
+      </c>
+      <c r="B58">
+        <v>15874</v>
+      </c>
+      <c r="C58">
+        <v>2.0191110091008102E+20</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>117</v>
+      </c>
+      <c r="F58">
+        <v>117</v>
+      </c>
+      <c r="G58" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" t="s">
+        <v>14</v>
+      </c>
+      <c r="I58" s="32">
+        <v>43779.381944444445</v>
+      </c>
+      <c r="J58" s="32">
+        <v>43779.382013888891</v>
+      </c>
+      <c r="K58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>32718</v>
+      </c>
+      <c r="B59">
+        <v>15874</v>
+      </c>
+      <c r="C59">
+        <v>2.0191110091001099E+20</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>980</v>
+      </c>
+      <c r="F59">
+        <v>980</v>
+      </c>
+      <c r="G59" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" t="s">
+        <v>14</v>
+      </c>
+      <c r="I59" s="32">
+        <v>43779.381944444445</v>
+      </c>
+      <c r="J59" s="32">
+        <v>43779.381932870368</v>
+      </c>
+      <c r="K59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>32717</v>
+      </c>
+      <c r="B60">
+        <v>15874</v>
+      </c>
+      <c r="C60">
+        <v>2.0191110090952101E+20</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>148</v>
+      </c>
+      <c r="F60">
+        <v>148</v>
+      </c>
+      <c r="G60" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60" t="s">
+        <v>14</v>
+      </c>
+      <c r="I60" s="32">
+        <v>43779.381249999999</v>
+      </c>
+      <c r="J60" s="32">
+        <v>43779.381828703707</v>
+      </c>
+      <c r="K60" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>32716</v>
+      </c>
+      <c r="B61">
+        <v>15874</v>
+      </c>
+      <c r="C61">
+        <v>2.0191110090944099E+20</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <v>540</v>
+      </c>
+      <c r="F61">
+        <v>540</v>
+      </c>
+      <c r="G61" t="s">
+        <v>11</v>
+      </c>
+      <c r="H61" t="s">
+        <v>14</v>
+      </c>
+      <c r="I61" s="32">
+        <v>43779.381249999999</v>
+      </c>
+      <c r="J61" s="32">
+        <v>43779.381736111114</v>
+      </c>
+      <c r="K61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>32715</v>
+      </c>
+      <c r="B62">
+        <v>15874</v>
+      </c>
+      <c r="C62">
+        <v>2.0191110090935101E+20</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>279</v>
+      </c>
+      <c r="F62">
+        <v>279</v>
+      </c>
+      <c r="G62" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62" t="s">
+        <v>14</v>
+      </c>
+      <c r="I62" s="32">
+        <v>43779.381249999999</v>
+      </c>
+      <c r="J62" s="32">
+        <v>43779.381620370368</v>
+      </c>
+      <c r="K62" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>32714</v>
+      </c>
+      <c r="B63">
+        <v>15874</v>
+      </c>
+      <c r="C63">
+        <v>2.0191110090922099E+20</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63">
+        <v>649</v>
+      </c>
+      <c r="F63">
+        <v>649</v>
+      </c>
+      <c r="G63" t="s">
+        <v>11</v>
+      </c>
+      <c r="H63" t="s">
+        <v>14</v>
+      </c>
+      <c r="I63" s="32">
+        <v>43779.381249999999</v>
+      </c>
+      <c r="J63" s="32">
+        <v>43779.381388888891</v>
+      </c>
+      <c r="K63" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>32713</v>
+      </c>
+      <c r="B64">
+        <v>15874</v>
+      </c>
+      <c r="C64">
+        <v>2.0191110090855101E+20</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>429</v>
+      </c>
+      <c r="F64">
+        <v>429</v>
+      </c>
+      <c r="G64" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64" t="s">
+        <v>14</v>
+      </c>
+      <c r="I64" s="32">
+        <v>43779.381249999999</v>
+      </c>
+      <c r="J64" s="32">
+        <v>43779.380798611113</v>
+      </c>
+      <c r="K64" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>32712</v>
+      </c>
+      <c r="B65">
+        <v>15874</v>
+      </c>
+      <c r="C65">
+        <v>2.01911100908171E+20</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65">
+        <v>239</v>
+      </c>
+      <c r="F65">
+        <v>239</v>
+      </c>
+      <c r="G65" t="s">
+        <v>11</v>
+      </c>
+      <c r="H65" t="s">
+        <v>14</v>
+      </c>
+      <c r="I65" s="32">
+        <v>43779.380555555559</v>
+      </c>
+      <c r="J65" s="32">
+        <v>43779.380706018521</v>
+      </c>
+      <c r="K65" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>32711</v>
+      </c>
+      <c r="B66">
+        <v>15874</v>
+      </c>
+      <c r="C66">
+        <v>2.0191110090808099E+20</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>253</v>
+      </c>
+      <c r="F66">
+        <v>253</v>
+      </c>
+      <c r="G66" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66" t="s">
+        <v>14</v>
+      </c>
+      <c r="I66" s="32">
+        <v>43779.380555555559</v>
+      </c>
+      <c r="J66" s="32">
+        <v>43779.380624999998</v>
+      </c>
+      <c r="K66" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>32710</v>
+      </c>
+      <c r="B67">
+        <v>15874</v>
+      </c>
+      <c r="C67">
+        <v>2.0191110090756099E+20</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67">
+        <v>91</v>
+      </c>
+      <c r="F67">
+        <v>91</v>
+      </c>
+      <c r="G67" t="s">
+        <v>11</v>
+      </c>
+      <c r="H67" t="s">
+        <v>14</v>
+      </c>
+      <c r="I67" s="32">
+        <v>43779.380555555559</v>
+      </c>
+      <c r="J67" s="32">
+        <v>43779.363854166666</v>
+      </c>
+      <c r="K67" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>32709</v>
+      </c>
+      <c r="B68">
+        <v>15874</v>
+      </c>
+      <c r="C68">
+        <v>2.01911100843491E+20</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68">
+        <v>756</v>
+      </c>
+      <c r="F68">
+        <v>756</v>
+      </c>
+      <c r="G68" t="s">
+        <v>11</v>
+      </c>
+      <c r="H68" t="s">
+        <v>14</v>
+      </c>
+      <c r="I68" s="32">
+        <v>43779.363194444442</v>
+      </c>
+      <c r="J68" s="32">
+        <v>43779.363726851851</v>
+      </c>
+      <c r="K68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>32708</v>
+      </c>
+      <c r="B69">
+        <v>15874</v>
+      </c>
+      <c r="C69">
+        <v>2.0191110084340099E+20</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>45.9</v>
+      </c>
+      <c r="F69">
+        <v>45.9</v>
+      </c>
+      <c r="G69" t="s">
+        <v>11</v>
+      </c>
+      <c r="H69" t="s">
+        <v>14</v>
+      </c>
+      <c r="I69" s="32">
+        <v>43779.363194444442</v>
+      </c>
+      <c r="J69" s="32">
+        <v>43779.363634259258</v>
+      </c>
+      <c r="K69" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>32707</v>
+      </c>
+      <c r="B70">
+        <v>15874</v>
+      </c>
+      <c r="C70">
+        <v>2.0191110084331101E+20</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70">
+        <v>50</v>
+      </c>
+      <c r="F70">
+        <v>50</v>
+      </c>
+      <c r="G70" t="s">
+        <v>11</v>
+      </c>
+      <c r="H70" t="s">
+        <v>14</v>
+      </c>
+      <c r="I70" s="32">
+        <v>43779.363194444442</v>
+      </c>
+      <c r="J70" s="32">
+        <v>43779.363518518519</v>
+      </c>
+      <c r="K70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>32706</v>
+      </c>
+      <c r="B71">
+        <v>15874</v>
+      </c>
+      <c r="C71">
+        <v>2.0191110084324101E+20</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71">
+        <v>375</v>
+      </c>
+      <c r="F71">
+        <v>375</v>
+      </c>
+      <c r="G71" t="s">
+        <v>11</v>
+      </c>
+      <c r="H71" t="s">
+        <v>14</v>
+      </c>
+      <c r="I71" s="32">
+        <v>43779.363194444442</v>
+      </c>
+      <c r="J71" s="32">
+        <v>43779.363449074073</v>
+      </c>
+      <c r="K71" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>32705</v>
+      </c>
+      <c r="B72">
+        <v>15874</v>
+      </c>
+      <c r="C72">
+        <v>2.01911100843151E+20</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72">
+        <v>107</v>
+      </c>
+      <c r="F72">
+        <v>107</v>
+      </c>
+      <c r="G72" t="s">
+        <v>11</v>
+      </c>
+      <c r="H72" t="s">
+        <v>14</v>
+      </c>
+      <c r="I72" s="32">
+        <v>43779.363194444442</v>
+      </c>
+      <c r="J72" s="32">
+        <v>43779.363344907404</v>
+      </c>
+      <c r="K72" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>32704</v>
+      </c>
+      <c r="B73">
+        <v>15874</v>
+      </c>
+      <c r="C73">
+        <v>2.0191110084308101E+20</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73">
+        <v>387</v>
+      </c>
+      <c r="F73">
+        <v>387</v>
+      </c>
+      <c r="G73" t="s">
+        <v>11</v>
+      </c>
+      <c r="H73" t="s">
+        <v>14</v>
+      </c>
+      <c r="I73" s="32">
+        <v>43779.363194444442</v>
+      </c>
+      <c r="J73" s="32">
+        <v>43779.363252314812</v>
+      </c>
+      <c r="K73" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>32703</v>
+      </c>
+      <c r="B74">
+        <v>15874</v>
+      </c>
+      <c r="C74">
+        <v>2.0191110084300099E+20</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74">
+        <v>238</v>
+      </c>
+      <c r="F74">
+        <v>238</v>
+      </c>
+      <c r="G74" t="s">
+        <v>11</v>
+      </c>
+      <c r="H74" t="s">
+        <v>14</v>
+      </c>
+      <c r="I74" s="32">
+        <v>43779.363194444442</v>
+      </c>
+      <c r="J74" s="32">
+        <v>43779.363159722219</v>
+      </c>
+      <c r="K74" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>32702</v>
+      </c>
+      <c r="B75">
+        <v>15874</v>
+      </c>
+      <c r="C75">
+        <v>2.01911100842531E+20</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>154</v>
+      </c>
+      <c r="F75">
+        <v>154</v>
+      </c>
+      <c r="G75" t="s">
+        <v>11</v>
+      </c>
+      <c r="H75" t="s">
+        <v>14</v>
+      </c>
+      <c r="I75" s="32">
+        <v>43779.362500000003</v>
+      </c>
+      <c r="J75" s="32">
+        <v>43779.363078703704</v>
+      </c>
+      <c r="K75" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>32701</v>
+      </c>
+      <c r="B76">
+        <v>15874</v>
+      </c>
+      <c r="C76">
+        <v>2.0191110084245101E+20</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76">
+        <v>480</v>
+      </c>
+      <c r="F76">
+        <v>480</v>
+      </c>
+      <c r="G76" t="s">
+        <v>11</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" s="32">
+        <v>43779.362500000003</v>
+      </c>
+      <c r="J76" s="32">
+        <v>43779.362997685188</v>
+      </c>
+      <c r="K76" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>32700</v>
+      </c>
+      <c r="B77">
+        <v>15874</v>
+      </c>
+      <c r="C77">
+        <v>2.0191110084238098E+20</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+      <c r="E77">
+        <v>229.9</v>
+      </c>
+      <c r="F77">
+        <v>229.9</v>
+      </c>
+      <c r="G77" t="s">
+        <v>11</v>
+      </c>
+      <c r="H77" t="s">
+        <v>14</v>
+      </c>
+      <c r="I77" s="32">
+        <v>43779.362500000003</v>
+      </c>
+      <c r="J77" s="32">
+        <v>43779.362916666665</v>
+      </c>
+      <c r="K77" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>32699</v>
+      </c>
+      <c r="B78">
+        <v>15874</v>
+      </c>
+      <c r="C78">
+        <v>2.01911100842301E+20</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78">
+        <v>248</v>
+      </c>
+      <c r="F78">
+        <v>248</v>
+      </c>
+      <c r="G78" t="s">
+        <v>11</v>
+      </c>
+      <c r="H78" t="s">
+        <v>14</v>
+      </c>
+      <c r="I78" s="32">
+        <v>43779.362500000003</v>
+      </c>
+      <c r="J78" s="32">
+        <v>43779.362824074073</v>
+      </c>
+      <c r="K78" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>32698</v>
+      </c>
+      <c r="B79">
+        <v>15874</v>
+      </c>
+      <c r="C79">
+        <v>2.0191110084222101E+20</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+      <c r="E79">
+        <v>998</v>
+      </c>
+      <c r="F79">
+        <v>998</v>
+      </c>
+      <c r="G79" t="s">
+        <v>11</v>
+      </c>
+      <c r="H79" t="s">
+        <v>14</v>
+      </c>
+      <c r="I79" s="32">
+        <v>43779.362500000003</v>
+      </c>
+      <c r="J79" s="32">
+        <v>43779.362719907411</v>
+      </c>
+      <c r="K79" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>32697</v>
+      </c>
+      <c r="B80">
+        <v>15874</v>
+      </c>
+      <c r="C80">
+        <v>2.0191110084214099E+20</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+      <c r="E80">
+        <v>774</v>
+      </c>
+      <c r="F80">
+        <v>774</v>
+      </c>
+      <c r="G80" t="s">
+        <v>11</v>
+      </c>
+      <c r="H80" t="s">
+        <v>14</v>
+      </c>
+      <c r="I80" s="32">
+        <v>43779.362500000003</v>
+      </c>
+      <c r="J80" s="32">
+        <v>43779.362627314818</v>
+      </c>
+      <c r="K80" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>32696</v>
+      </c>
+      <c r="B81">
+        <v>15874</v>
+      </c>
+      <c r="C81">
+        <v>2.01911100842071E+20</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+      <c r="E81">
+        <v>649</v>
+      </c>
+      <c r="F81">
+        <v>649</v>
+      </c>
+      <c r="G81" t="s">
+        <v>11</v>
+      </c>
+      <c r="H81" t="s">
+        <v>14</v>
+      </c>
+      <c r="I81" s="32">
+        <v>43779.362500000003</v>
+      </c>
+      <c r="J81" s="32">
+        <v>43779.362534722219</v>
+      </c>
+      <c r="K81" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>32695</v>
+      </c>
+      <c r="B82">
+        <v>15874</v>
+      </c>
+      <c r="C82">
+        <v>2.0191110084158099E+20</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="E82">
+        <v>550</v>
+      </c>
+      <c r="F82">
+        <v>550</v>
+      </c>
+      <c r="G82" t="s">
+        <v>11</v>
+      </c>
+      <c r="H82" t="s">
+        <v>14</v>
+      </c>
+      <c r="I82" s="32">
+        <v>43779.362500000003</v>
+      </c>
+      <c r="J82" s="32">
+        <v>43779.362430555557</v>
+      </c>
+      <c r="K82" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>32694</v>
+      </c>
+      <c r="B83">
+        <v>15874</v>
+      </c>
+      <c r="C83">
+        <v>2.01911100841501E+20</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="E83">
+        <v>525</v>
+      </c>
+      <c r="F83">
+        <v>525</v>
+      </c>
+      <c r="G83" t="s">
+        <v>11</v>
+      </c>
+      <c r="H83" t="s">
+        <v>14</v>
+      </c>
+      <c r="I83" s="32">
+        <v>43779.361805555556</v>
+      </c>
+      <c r="J83" s="32">
+        <v>43779.362349537034</v>
+      </c>
+      <c r="K83" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>32693</v>
+      </c>
+      <c r="B84">
+        <v>15874</v>
+      </c>
+      <c r="C84">
+        <v>2.0191110084142101E+20</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84">
+        <v>603</v>
+      </c>
+      <c r="F84">
+        <v>603</v>
+      </c>
+      <c r="G84" t="s">
+        <v>11</v>
+      </c>
+      <c r="H84" t="s">
+        <v>14</v>
+      </c>
+      <c r="I84" s="32">
+        <v>43779.361805555556</v>
+      </c>
+      <c r="J84" s="32">
+        <v>43779.362268518518</v>
+      </c>
+      <c r="K84" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>32692</v>
+      </c>
+      <c r="B85">
+        <v>15874</v>
+      </c>
+      <c r="C85">
+        <v>2.0191110084135099E+20</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+      <c r="E85">
+        <v>155</v>
+      </c>
+      <c r="F85">
+        <v>155</v>
+      </c>
+      <c r="G85" t="s">
+        <v>11</v>
+      </c>
+      <c r="H85" t="s">
+        <v>14</v>
+      </c>
+      <c r="I85" s="32">
+        <v>43779.361805555556</v>
+      </c>
+      <c r="J85" s="32">
+        <v>43779.362175925926</v>
+      </c>
+      <c r="K85" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>32691</v>
+      </c>
+      <c r="B86">
+        <v>15874</v>
+      </c>
+      <c r="C86">
+        <v>2.01911100841271E+20</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+      <c r="E86">
+        <v>1049</v>
+      </c>
+      <c r="F86">
+        <v>1049</v>
+      </c>
+      <c r="G86" t="s">
+        <v>11</v>
+      </c>
+      <c r="H86" t="s">
+        <v>14</v>
+      </c>
+      <c r="I86" s="32">
+        <v>43779.361805555556</v>
+      </c>
+      <c r="J86" s="32">
+        <v>43779.362083333333</v>
+      </c>
+      <c r="K86" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>32690</v>
+      </c>
+      <c r="B87">
+        <v>15874</v>
+      </c>
+      <c r="C87">
+        <v>2.0191110084117099E+20</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+      <c r="E87">
+        <v>868</v>
+      </c>
+      <c r="F87">
+        <v>868</v>
+      </c>
+      <c r="G87" t="s">
+        <v>11</v>
+      </c>
+      <c r="H87" t="s">
+        <v>14</v>
+      </c>
+      <c r="I87" s="32">
+        <v>43779.361805555556</v>
+      </c>
+      <c r="J87" s="32">
+        <v>43779.361956018518</v>
+      </c>
+      <c r="K87" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>32689</v>
+      </c>
+      <c r="B88">
+        <v>15874</v>
+      </c>
+      <c r="C88">
+        <v>2.0191110084108101E+20</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+      <c r="E88">
+        <v>428</v>
+      </c>
+      <c r="F88">
+        <v>428</v>
+      </c>
+      <c r="G88" t="s">
+        <v>11</v>
+      </c>
+      <c r="H88" t="s">
+        <v>14</v>
+      </c>
+      <c r="I88" s="32">
+        <v>43779.361805555556</v>
+      </c>
+      <c r="J88" s="32">
+        <v>43779.361851851849</v>
+      </c>
+      <c r="K88" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>32688</v>
+      </c>
+      <c r="B89">
+        <v>15874</v>
+      </c>
+      <c r="C89">
+        <v>2.01911100840591E+20</v>
+      </c>
+      <c r="D89">
+        <v>2</v>
+      </c>
+      <c r="E89">
+        <v>158</v>
+      </c>
+      <c r="F89">
+        <v>158</v>
+      </c>
+      <c r="G89" t="s">
+        <v>11</v>
+      </c>
+      <c r="H89" t="s">
+        <v>14</v>
+      </c>
+      <c r="I89" s="32">
+        <v>43779.361805555556</v>
+      </c>
+      <c r="J89" s="32">
+        <v>43779.361747685187</v>
+      </c>
+      <c r="K89" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>32687</v>
+      </c>
+      <c r="B90">
+        <v>15874</v>
+      </c>
+      <c r="C90">
+        <v>2.0191110084038099E+20</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+      <c r="E90">
+        <v>940</v>
+      </c>
+      <c r="F90">
+        <v>940</v>
+      </c>
+      <c r="G90" t="s">
+        <v>11</v>
+      </c>
+      <c r="H90" t="s">
+        <v>14</v>
+      </c>
+      <c r="I90" s="32">
+        <v>43779.361111111109</v>
+      </c>
+      <c r="J90" s="32">
+        <v>43779.361203703702</v>
+      </c>
+      <c r="K90" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>32801</v>
+      </c>
+      <c r="B91">
+        <v>15874</v>
+      </c>
+      <c r="C91">
+        <v>2.01911101943151E+20</v>
+      </c>
+      <c r="D91">
+        <v>3</v>
+      </c>
+      <c r="E91">
+        <v>214</v>
+      </c>
+      <c r="F91">
+        <v>214</v>
+      </c>
+      <c r="G91" t="s">
+        <v>11</v>
+      </c>
+      <c r="H91" t="s">
+        <v>14</v>
+      </c>
+      <c r="I91" s="32">
+        <v>43779.821527777778</v>
+      </c>
+      <c r="J91" s="32">
+        <v>43779.821574074071</v>
+      </c>
+      <c r="K91" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>32800</v>
+      </c>
+      <c r="B92">
+        <v>15874</v>
+      </c>
+      <c r="C92">
+        <v>2.0191110194248099E+20</v>
+      </c>
+      <c r="D92">
+        <v>3</v>
+      </c>
+      <c r="E92">
+        <v>367</v>
+      </c>
+      <c r="F92">
+        <v>367</v>
+      </c>
+      <c r="G92" t="s">
+        <v>11</v>
+      </c>
+      <c r="H92" t="s">
+        <v>14</v>
+      </c>
+      <c r="I92" s="32">
+        <v>43779.820833333331</v>
+      </c>
+      <c r="J92" s="32">
+        <v>43779.821342592593</v>
+      </c>
+      <c r="K92" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>32799</v>
+      </c>
+      <c r="B93">
+        <v>15874</v>
+      </c>
+      <c r="C93">
+        <v>2.0191110194226099E+20</v>
+      </c>
+      <c r="D93">
+        <v>3</v>
+      </c>
+      <c r="E93">
+        <v>433</v>
+      </c>
+      <c r="F93">
+        <v>433</v>
+      </c>
+      <c r="G93" t="s">
+        <v>11</v>
+      </c>
+      <c r="H93" t="s">
+        <v>14</v>
+      </c>
+      <c r="I93" s="32">
+        <v>43779.820833333331</v>
+      </c>
+      <c r="J93" s="32">
+        <v>43779.82104166667</v>
+      </c>
+      <c r="K93" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>32798</v>
+      </c>
+      <c r="B94">
+        <v>15874</v>
+      </c>
+      <c r="C94">
+        <v>2.0191110194205101E+20</v>
+      </c>
+      <c r="D94">
+        <v>3</v>
+      </c>
+      <c r="E94">
+        <v>746</v>
+      </c>
+      <c r="F94">
+        <v>746</v>
+      </c>
+      <c r="G94" t="s">
+        <v>11</v>
+      </c>
+      <c r="H94" t="s">
+        <v>14</v>
+      </c>
+      <c r="I94" s="32">
+        <v>43779.820833333331</v>
+      </c>
+      <c r="J94" s="32">
+        <v>43779.820752314816</v>
+      </c>
+      <c r="K94" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>32797</v>
+      </c>
+      <c r="B95">
+        <v>15874</v>
+      </c>
+      <c r="C95">
+        <v>2.0191110194142102E+20</v>
+      </c>
+      <c r="D95">
+        <v>3</v>
+      </c>
+      <c r="E95">
+        <v>392</v>
+      </c>
+      <c r="F95">
+        <v>392</v>
+      </c>
+      <c r="G95" t="s">
+        <v>11</v>
+      </c>
+      <c r="H95" t="s">
+        <v>14</v>
+      </c>
+      <c r="I95" s="32">
+        <v>43779.820138888892</v>
+      </c>
+      <c r="J95" s="32">
+        <v>43779.820520833331</v>
+      </c>
+      <c r="K95" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>32796</v>
+      </c>
+      <c r="B96">
+        <v>15874</v>
+      </c>
+      <c r="C96">
+        <v>2.0191110193913099E+20</v>
+      </c>
+      <c r="D96">
+        <v>3</v>
+      </c>
+      <c r="E96">
+        <v>1169</v>
+      </c>
+      <c r="F96">
+        <v>1169</v>
+      </c>
+      <c r="G96" t="s">
+        <v>68</v>
+      </c>
+      <c r="H96" t="s">
+        <v>69</v>
+      </c>
+      <c r="J96" s="32">
+        <v>43779.818784722222</v>
+      </c>
+      <c r="K96" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>32795</v>
+      </c>
+      <c r="B97">
+        <v>15874</v>
+      </c>
+      <c r="C97">
+        <v>2.01911101938491E+20</v>
+      </c>
+      <c r="D97">
+        <v>6</v>
+      </c>
+      <c r="E97">
+        <v>1761</v>
+      </c>
+      <c r="F97">
+        <v>1761</v>
+      </c>
+      <c r="G97" t="s">
+        <v>11</v>
+      </c>
+      <c r="H97" t="s">
+        <v>14</v>
+      </c>
+      <c r="I97" s="32">
+        <v>43779.818055555559</v>
+      </c>
+      <c r="J97" s="32">
+        <v>43779.818518518521</v>
+      </c>
+      <c r="K97" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>32793</v>
+      </c>
+      <c r="B98">
+        <v>15874</v>
+      </c>
+      <c r="C98">
+        <v>2.01911101936051E+20</v>
+      </c>
+      <c r="D98">
+        <v>3</v>
+      </c>
+      <c r="E98">
+        <v>296</v>
+      </c>
+      <c r="F98">
+        <v>296</v>
+      </c>
+      <c r="G98" t="s">
+        <v>11</v>
+      </c>
+      <c r="H98" t="s">
+        <v>23</v>
+      </c>
+      <c r="I98" s="32">
+        <v>43779.816666666666</v>
+      </c>
+      <c r="J98" s="32">
+        <v>43779.816527777781</v>
+      </c>
+      <c r="K98" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>32792</v>
+      </c>
+      <c r="B99">
+        <v>15874</v>
+      </c>
+      <c r="C99">
+        <v>2.0191110193506101E+20</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+      <c r="E99">
+        <v>798</v>
+      </c>
+      <c r="F99">
+        <v>798</v>
+      </c>
+      <c r="G99" t="s">
+        <v>11</v>
+      </c>
+      <c r="H99" t="s">
+        <v>14</v>
+      </c>
+      <c r="I99" s="32">
+        <v>43779.815972222219</v>
+      </c>
+      <c r="J99" s="32">
+        <v>43779.815798611111</v>
+      </c>
+      <c r="K99" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>32790</v>
+      </c>
+      <c r="B100">
+        <v>15874</v>
+      </c>
+      <c r="C100">
+        <v>2.0191110193239101E+20</v>
+      </c>
+      <c r="D100">
+        <v>4</v>
+      </c>
+      <c r="E100">
+        <v>2160</v>
+      </c>
+      <c r="F100">
+        <v>2160</v>
+      </c>
+      <c r="G100" t="s">
+        <v>11</v>
+      </c>
+      <c r="H100" t="s">
+        <v>14</v>
+      </c>
+      <c r="I100" s="32">
+        <v>43779.814583333333</v>
+      </c>
+      <c r="J100" s="32">
+        <v>43779.814189814817</v>
+      </c>
+      <c r="K100" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/s_d/麻吉.xlsx
+++ b/s_d/麻吉.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\王鹏远\Desktop\Electronic\s_d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299C796E-B04D-4D77-8B53-B480ED4DFCF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953170BA-6A3A-4528-AC93-BD4897575C73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="714" firstSheet="8" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="714" firstSheet="8" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="19.10.29" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5149" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5445" uniqueCount="76">
   <si>
     <t>ID</t>
   </si>
@@ -162,6 +162,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -172,6 +173,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -285,6 +287,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -295,6 +298,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -316,6 +320,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -326,6 +331,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -350,6 +356,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -360,6 +367,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -403,7 +411,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -428,6 +436,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -435,6 +444,7 @@
       <sz val="11"/>
       <color theme="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -442,6 +452,7 @@
       <sz val="9"/>
       <color rgb="FF333333"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -455,12 +466,14 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -483,6 +496,14 @@
       <color rgb="FF333333"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -580,7 +601,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -738,6 +759,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -31561,8 +31591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351D84A4-1F7B-4683-99A6-69BC633996E3}">
   <dimension ref="A1:P118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView zoomScale="109" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -35862,16 +35892,3542 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EEE4F7A-03EB-4D89-83C7-9CBA5898D7C3}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="13" max="13" width="12.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="44">
+        <v>33558</v>
+      </c>
+      <c r="B2" s="44">
+        <v>15874</v>
+      </c>
+      <c r="C2" s="44">
+        <v>2.0191116113904101E+20</v>
+      </c>
+      <c r="D2" s="45">
+        <v>2</v>
+      </c>
+      <c r="E2" s="44">
+        <v>659</v>
+      </c>
+      <c r="F2" s="44">
+        <v>659</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="46">
+        <v>43785.48541666667</v>
+      </c>
+      <c r="J2" s="46">
+        <v>43785.485439814816</v>
+      </c>
+      <c r="K2" s="53" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="38">
+        <v>33556</v>
+      </c>
+      <c r="B3" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C3" s="38">
+        <v>2.0191116113846102E+20</v>
+      </c>
+      <c r="D3" s="39">
+        <v>2</v>
+      </c>
+      <c r="E3" s="38">
+        <v>1091</v>
+      </c>
+      <c r="F3" s="38">
+        <v>1091</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="40">
+        <v>43785.484722222223</v>
+      </c>
+      <c r="J3" s="40">
+        <v>43785.485219907408</v>
+      </c>
+      <c r="K3" s="50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="38">
+        <v>33553</v>
+      </c>
+      <c r="B4" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C4" s="38">
+        <v>2.0191116113813101E+20</v>
+      </c>
+      <c r="D4" s="39">
+        <v>1</v>
+      </c>
+      <c r="E4" s="38">
+        <v>30</v>
+      </c>
+      <c r="F4" s="38">
+        <v>30</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="40">
+        <v>43785.484722222223</v>
+      </c>
+      <c r="J4" s="40">
+        <v>43785.484849537039</v>
+      </c>
+      <c r="K4" s="50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="38">
+        <v>33552</v>
+      </c>
+      <c r="B5" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C5" s="38">
+        <v>2.0191116113805099E+20</v>
+      </c>
+      <c r="D5" s="39">
+        <v>2</v>
+      </c>
+      <c r="E5" s="38">
+        <v>145</v>
+      </c>
+      <c r="F5" s="38">
+        <v>145</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="40">
+        <v>43785.484722222223</v>
+      </c>
+      <c r="J5" s="40">
+        <v>43785.48474537037</v>
+      </c>
+      <c r="K5" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="N5">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="38">
+        <v>33549</v>
+      </c>
+      <c r="B6" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C6" s="38">
+        <v>2.0191116113720099E+20</v>
+      </c>
+      <c r="D6" s="39">
+        <v>2</v>
+      </c>
+      <c r="E6" s="38">
+        <v>106</v>
+      </c>
+      <c r="F6" s="38">
+        <v>106</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="40">
+        <v>43785.484027777777</v>
+      </c>
+      <c r="J6" s="40">
+        <v>43785.484212962961</v>
+      </c>
+      <c r="K6" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="M6" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="N6">
+        <v>20000</v>
+      </c>
+      <c r="O6" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="38">
+        <v>33520</v>
+      </c>
+      <c r="B7" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C7" s="38">
+        <v>2.01911161133081E+20</v>
+      </c>
+      <c r="D7" s="39">
+        <v>2</v>
+      </c>
+      <c r="E7" s="38">
+        <v>997</v>
+      </c>
+      <c r="F7" s="38">
+        <v>997</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="40">
+        <v>43785.481249999997</v>
+      </c>
+      <c r="J7" s="40">
+        <v>43785.481307870374</v>
+      </c>
+      <c r="K7" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="M7" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="N7">
+        <v>68591.399999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="41">
+        <v>33518</v>
+      </c>
+      <c r="B8" s="41">
+        <v>15874</v>
+      </c>
+      <c r="C8" s="41">
+        <v>2.0191116113253099E+20</v>
+      </c>
+      <c r="D8" s="42">
+        <v>2</v>
+      </c>
+      <c r="E8" s="41">
+        <v>460</v>
+      </c>
+      <c r="F8" s="41">
+        <v>460</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="43">
+        <v>43785.480555555558</v>
+      </c>
+      <c r="J8" s="43">
+        <v>43785.481134259258</v>
+      </c>
+      <c r="K8" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="M8" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="N8">
+        <v>-44.44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="44">
+        <v>33609</v>
+      </c>
+      <c r="B9" s="44">
+        <v>15874</v>
+      </c>
+      <c r="C9" s="44">
+        <v>2.01911161823091E+20</v>
+      </c>
+      <c r="D9" s="45">
+        <v>2</v>
+      </c>
+      <c r="E9" s="44">
+        <v>184</v>
+      </c>
+      <c r="F9" s="44">
+        <v>184</v>
+      </c>
+      <c r="G9" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="46">
+        <v>43785.765972222223</v>
+      </c>
+      <c r="J9" s="46">
+        <v>43785.766006944446</v>
+      </c>
+      <c r="K9" s="47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="38">
+        <v>33608</v>
+      </c>
+      <c r="B10" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C10" s="38">
+        <v>2.0191116182233101E+20</v>
+      </c>
+      <c r="D10" s="39">
+        <v>1</v>
+      </c>
+      <c r="E10" s="38">
+        <v>39</v>
+      </c>
+      <c r="F10" s="38">
+        <v>39</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="40">
+        <v>43785.765277777777</v>
+      </c>
+      <c r="J10" s="40">
+        <v>43785.765173611115</v>
+      </c>
+      <c r="K10" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="38">
+        <v>33607</v>
+      </c>
+      <c r="B11" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C11" s="38">
+        <v>2.0191116182143101E+20</v>
+      </c>
+      <c r="D11" s="39">
+        <v>2</v>
+      </c>
+      <c r="E11" s="38">
+        <v>586</v>
+      </c>
+      <c r="F11" s="38">
+        <v>586</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="40">
+        <v>43785.76458333333</v>
+      </c>
+      <c r="J11" s="40">
+        <v>43785.764988425923</v>
+      </c>
+      <c r="K11" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="38">
+        <v>33606</v>
+      </c>
+      <c r="B12" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C12" s="38">
+        <v>2.01911161821211E+20</v>
+      </c>
+      <c r="D12" s="39">
+        <v>2</v>
+      </c>
+      <c r="E12" s="38">
+        <v>172</v>
+      </c>
+      <c r="F12" s="38">
+        <v>172</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="40">
+        <v>43785.76458333333</v>
+      </c>
+      <c r="J12" s="40">
+        <v>43785.764780092592</v>
+      </c>
+      <c r="K12" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="38">
+        <v>33605</v>
+      </c>
+      <c r="B13" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C13" s="38">
+        <v>2.0191116182111099E+20</v>
+      </c>
+      <c r="D13" s="39">
+        <v>2</v>
+      </c>
+      <c r="E13" s="38">
+        <v>919</v>
+      </c>
+      <c r="F13" s="38">
+        <v>919</v>
+      </c>
+      <c r="G13" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="40">
+        <v>43785.76458333333</v>
+      </c>
+      <c r="J13" s="40">
+        <v>43785.764675925922</v>
+      </c>
+      <c r="K13" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="38">
+        <v>33604</v>
+      </c>
+      <c r="B14" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C14" s="38">
+        <v>2.0191116182101098E+20</v>
+      </c>
+      <c r="D14" s="39">
+        <v>2</v>
+      </c>
+      <c r="E14" s="38">
+        <v>156</v>
+      </c>
+      <c r="F14" s="38">
+        <v>156</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="40">
+        <v>43785.76458333333</v>
+      </c>
+      <c r="J14" s="40">
+        <v>43785.764548611114</v>
+      </c>
+      <c r="K14" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="38">
+        <v>33603</v>
+      </c>
+      <c r="B15" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C15" s="38">
+        <v>2.0191116182050098E+20</v>
+      </c>
+      <c r="D15" s="39">
+        <v>2</v>
+      </c>
+      <c r="E15" s="38">
+        <v>308</v>
+      </c>
+      <c r="F15" s="38">
+        <v>308</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="40">
+        <v>43785.763888888891</v>
+      </c>
+      <c r="J15" s="40">
+        <v>43785.764421296299</v>
+      </c>
+      <c r="K15" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="38">
+        <v>33602</v>
+      </c>
+      <c r="B16" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C16" s="38">
+        <v>2.0191116182039101E+20</v>
+      </c>
+      <c r="D16" s="39">
+        <v>2</v>
+      </c>
+      <c r="E16" s="38">
+        <v>183</v>
+      </c>
+      <c r="F16" s="38">
+        <v>183</v>
+      </c>
+      <c r="G16" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="40">
+        <v>43785.763888888891</v>
+      </c>
+      <c r="J16" s="40">
+        <v>43785.764293981483</v>
+      </c>
+      <c r="K16" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="38">
+        <v>33601</v>
+      </c>
+      <c r="B17" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C17" s="38">
+        <v>2.01911161820301E+20</v>
+      </c>
+      <c r="D17" s="39">
+        <v>2</v>
+      </c>
+      <c r="E17" s="38">
+        <v>160</v>
+      </c>
+      <c r="F17" s="38">
+        <v>160</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="40">
+        <v>43785.763888888891</v>
+      </c>
+      <c r="J17" s="40">
+        <v>43785.764189814814</v>
+      </c>
+      <c r="K17" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="38">
+        <v>33600</v>
+      </c>
+      <c r="B18" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C18" s="38">
+        <v>2.0191116182020099E+20</v>
+      </c>
+      <c r="D18" s="39">
+        <v>2</v>
+      </c>
+      <c r="E18" s="38">
+        <v>399</v>
+      </c>
+      <c r="F18" s="38">
+        <v>399</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="40">
+        <v>43785.763888888891</v>
+      </c>
+      <c r="J18" s="40">
+        <v>43785.764074074075</v>
+      </c>
+      <c r="K18" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="38">
+        <v>33599</v>
+      </c>
+      <c r="B19" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C19" s="38">
+        <v>2.0191116182009099E+20</v>
+      </c>
+      <c r="D19" s="39">
+        <v>2</v>
+      </c>
+      <c r="E19" s="38">
+        <v>149</v>
+      </c>
+      <c r="F19" s="38">
+        <v>149</v>
+      </c>
+      <c r="G19" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="40">
+        <v>43785.763888888891</v>
+      </c>
+      <c r="J19" s="40">
+        <v>43785.76394675926</v>
+      </c>
+      <c r="K19" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="38">
+        <v>33598</v>
+      </c>
+      <c r="B20" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C20" s="38">
+        <v>2.0191116181953099E+20</v>
+      </c>
+      <c r="D20" s="39">
+        <v>2</v>
+      </c>
+      <c r="E20" s="38">
+        <v>457</v>
+      </c>
+      <c r="F20" s="38">
+        <v>457</v>
+      </c>
+      <c r="G20" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="40">
+        <v>43785.763888888891</v>
+      </c>
+      <c r="J20" s="40">
+        <v>43785.762673611112</v>
+      </c>
+      <c r="K20" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="38">
+        <v>33597</v>
+      </c>
+      <c r="B21" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C21" s="38">
+        <v>2.0191116181805099E+20</v>
+      </c>
+      <c r="D21" s="39">
+        <v>2</v>
+      </c>
+      <c r="E21" s="38">
+        <v>80</v>
+      </c>
+      <c r="F21" s="38">
+        <v>80</v>
+      </c>
+      <c r="G21" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="40">
+        <v>43785.762499999997</v>
+      </c>
+      <c r="J21" s="40">
+        <v>43785.762523148151</v>
+      </c>
+      <c r="K21" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="38">
+        <v>33596</v>
+      </c>
+      <c r="B22" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C22" s="38">
+        <v>2.0191116181756101E+20</v>
+      </c>
+      <c r="D22" s="39">
+        <v>2</v>
+      </c>
+      <c r="E22" s="38">
+        <v>1433</v>
+      </c>
+      <c r="F22" s="38">
+        <v>1433</v>
+      </c>
+      <c r="G22" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="40">
+        <v>43785.762499999997</v>
+      </c>
+      <c r="J22" s="40">
+        <v>43785.762418981481</v>
+      </c>
+      <c r="K22" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="38">
+        <v>33595</v>
+      </c>
+      <c r="B23" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C23" s="38">
+        <v>2.01911161817461E+20</v>
+      </c>
+      <c r="D23" s="39">
+        <v>1</v>
+      </c>
+      <c r="E23" s="38">
+        <v>28</v>
+      </c>
+      <c r="F23" s="38">
+        <v>28</v>
+      </c>
+      <c r="G23" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="40">
+        <v>43785.761805555558</v>
+      </c>
+      <c r="J23" s="40">
+        <v>43785.762291666666</v>
+      </c>
+      <c r="K23" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="38">
+        <v>33594</v>
+      </c>
+      <c r="B24" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C24" s="38">
+        <v>2.0191116181736099E+20</v>
+      </c>
+      <c r="D24" s="39">
+        <v>2</v>
+      </c>
+      <c r="E24" s="38">
+        <v>236</v>
+      </c>
+      <c r="F24" s="38">
+        <v>236</v>
+      </c>
+      <c r="G24" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="40">
+        <v>43785.761805555558</v>
+      </c>
+      <c r="J24" s="40">
+        <v>43785.762175925927</v>
+      </c>
+      <c r="K24" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="38">
+        <v>33593</v>
+      </c>
+      <c r="B25" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C25" s="38">
+        <v>2.0191116181724099E+20</v>
+      </c>
+      <c r="D25" s="39">
+        <v>2</v>
+      </c>
+      <c r="E25" s="38">
+        <v>229</v>
+      </c>
+      <c r="F25" s="38">
+        <v>229</v>
+      </c>
+      <c r="G25" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="40">
+        <v>43785.761805555558</v>
+      </c>
+      <c r="J25" s="40">
+        <v>43785.762025462966</v>
+      </c>
+      <c r="K25" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="38">
+        <v>33592</v>
+      </c>
+      <c r="B26" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C26" s="38">
+        <v>2.0191116181713099E+20</v>
+      </c>
+      <c r="D26" s="39">
+        <v>2</v>
+      </c>
+      <c r="E26" s="38">
+        <v>368</v>
+      </c>
+      <c r="F26" s="38">
+        <v>368</v>
+      </c>
+      <c r="G26" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="40">
+        <v>43785.761805555558</v>
+      </c>
+      <c r="J26" s="40">
+        <v>43785.76189814815</v>
+      </c>
+      <c r="K26" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="38">
+        <v>33591</v>
+      </c>
+      <c r="B27" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C27" s="38">
+        <v>2.0191116181642101E+20</v>
+      </c>
+      <c r="D27" s="39">
+        <v>2</v>
+      </c>
+      <c r="E27" s="38">
+        <v>531</v>
+      </c>
+      <c r="F27" s="38">
+        <v>531</v>
+      </c>
+      <c r="G27" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="40">
+        <v>43785.761111111111</v>
+      </c>
+      <c r="J27" s="40">
+        <v>43785.761562500003</v>
+      </c>
+      <c r="K27" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="41">
+        <v>33590</v>
+      </c>
+      <c r="B28" s="41">
+        <v>15874</v>
+      </c>
+      <c r="C28" s="41">
+        <v>2.01911161816321E+20</v>
+      </c>
+      <c r="D28" s="42">
+        <v>2</v>
+      </c>
+      <c r="E28" s="41">
+        <v>726</v>
+      </c>
+      <c r="F28" s="41">
+        <v>726</v>
+      </c>
+      <c r="G28" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="43">
+        <v>43785.761111111111</v>
+      </c>
+      <c r="J28" s="43">
+        <v>43785.761435185188</v>
+      </c>
+      <c r="K28" s="49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="44">
+        <v>33589</v>
+      </c>
+      <c r="B29" s="44">
+        <v>15874</v>
+      </c>
+      <c r="C29" s="44">
+        <v>2.01911161816201E+20</v>
+      </c>
+      <c r="D29" s="45">
+        <v>2</v>
+      </c>
+      <c r="E29" s="44">
+        <v>1041</v>
+      </c>
+      <c r="F29" s="44">
+        <v>1041</v>
+      </c>
+      <c r="G29" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="46">
+        <v>43785.761111111111</v>
+      </c>
+      <c r="J29" s="46">
+        <v>43785.761284722219</v>
+      </c>
+      <c r="K29" s="47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="38">
+        <v>33588</v>
+      </c>
+      <c r="B30" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C30" s="38">
+        <v>2.0191116181605099E+20</v>
+      </c>
+      <c r="D30" s="39">
+        <v>2</v>
+      </c>
+      <c r="E30" s="38">
+        <v>857</v>
+      </c>
+      <c r="F30" s="38">
+        <v>857</v>
+      </c>
+      <c r="G30" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="40">
+        <v>43785.761111111111</v>
+      </c>
+      <c r="J30" s="40">
+        <v>43785.760868055557</v>
+      </c>
+      <c r="K30" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="38">
+        <v>33587</v>
+      </c>
+      <c r="B31" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C31" s="38">
+        <v>2.01911161815301E+20</v>
+      </c>
+      <c r="D31" s="39">
+        <v>2</v>
+      </c>
+      <c r="E31" s="38">
+        <v>768</v>
+      </c>
+      <c r="F31" s="38">
+        <v>768</v>
+      </c>
+      <c r="G31" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="40">
+        <v>43785.760416666664</v>
+      </c>
+      <c r="J31" s="40">
+        <v>43785.760671296295</v>
+      </c>
+      <c r="K31" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="38">
+        <v>33586</v>
+      </c>
+      <c r="B32" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C32" s="38">
+        <v>2.0191116181516101E+20</v>
+      </c>
+      <c r="D32" s="39">
+        <v>2</v>
+      </c>
+      <c r="E32" s="38">
+        <v>526</v>
+      </c>
+      <c r="F32" s="38">
+        <v>526</v>
+      </c>
+      <c r="G32" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="40">
+        <v>43785.760416666664</v>
+      </c>
+      <c r="J32" s="40">
+        <v>43785.760555555556</v>
+      </c>
+      <c r="K32" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="38">
+        <v>33585</v>
+      </c>
+      <c r="B33" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C33" s="38">
+        <v>2.01911161815061E+20</v>
+      </c>
+      <c r="D33" s="39">
+        <v>2</v>
+      </c>
+      <c r="E33" s="38">
+        <v>470</v>
+      </c>
+      <c r="F33" s="38">
+        <v>470</v>
+      </c>
+      <c r="G33" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="40">
+        <v>43785.760416666664</v>
+      </c>
+      <c r="J33" s="40">
+        <v>43785.760416666664</v>
+      </c>
+      <c r="K33" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="38">
+        <v>33584</v>
+      </c>
+      <c r="B34" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C34" s="38">
+        <v>2.01911161814501E+20</v>
+      </c>
+      <c r="D34" s="39">
+        <v>2</v>
+      </c>
+      <c r="E34" s="38">
+        <v>360</v>
+      </c>
+      <c r="F34" s="38">
+        <v>360</v>
+      </c>
+      <c r="G34" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" s="40">
+        <v>43785.759722222225</v>
+      </c>
+      <c r="J34" s="40">
+        <v>43785.760231481479</v>
+      </c>
+      <c r="K34" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="38">
+        <v>33583</v>
+      </c>
+      <c r="B35" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C35" s="38">
+        <v>2.0191116181437101E+20</v>
+      </c>
+      <c r="D35" s="39">
+        <v>2</v>
+      </c>
+      <c r="E35" s="38">
+        <v>1130</v>
+      </c>
+      <c r="F35" s="38">
+        <v>1130</v>
+      </c>
+      <c r="G35" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="40">
+        <v>43785.759722222225</v>
+      </c>
+      <c r="J35" s="40">
+        <v>43785.760104166664</v>
+      </c>
+      <c r="K35" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="38">
+        <v>33582</v>
+      </c>
+      <c r="B36" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C36" s="38">
+        <v>2.0191116181428099E+20</v>
+      </c>
+      <c r="D36" s="39">
+        <v>2</v>
+      </c>
+      <c r="E36" s="38">
+        <v>780</v>
+      </c>
+      <c r="F36" s="38">
+        <v>780</v>
+      </c>
+      <c r="G36" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" s="40">
+        <v>43785.759722222225</v>
+      </c>
+      <c r="J36" s="40">
+        <v>43785.760000000002</v>
+      </c>
+      <c r="K36" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="38">
+        <v>33581</v>
+      </c>
+      <c r="B37" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C37" s="38">
+        <v>2.0191116181413102E+20</v>
+      </c>
+      <c r="D37" s="39">
+        <v>2</v>
+      </c>
+      <c r="E37" s="38">
+        <v>138</v>
+      </c>
+      <c r="F37" s="38">
+        <v>138</v>
+      </c>
+      <c r="G37" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" s="40">
+        <v>43785.759722222225</v>
+      </c>
+      <c r="J37" s="40">
+        <v>43785.759791666664</v>
+      </c>
+      <c r="K37" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="38">
+        <v>33580</v>
+      </c>
+      <c r="B38" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C38" s="38">
+        <v>2.01911161813581E+20</v>
+      </c>
+      <c r="D38" s="39">
+        <v>2</v>
+      </c>
+      <c r="E38" s="38">
+        <v>1142</v>
+      </c>
+      <c r="F38" s="38">
+        <v>1142</v>
+      </c>
+      <c r="G38" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" s="40">
+        <v>43785.759722222225</v>
+      </c>
+      <c r="J38" s="40">
+        <v>43785.759664351855</v>
+      </c>
+      <c r="K38" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="38">
+        <v>33579</v>
+      </c>
+      <c r="B39" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C39" s="38">
+        <v>2.01911161813481E+20</v>
+      </c>
+      <c r="D39" s="39">
+        <v>2</v>
+      </c>
+      <c r="E39" s="38">
+        <v>1057</v>
+      </c>
+      <c r="F39" s="38">
+        <v>1057</v>
+      </c>
+      <c r="G39" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" s="40">
+        <v>43785.759027777778</v>
+      </c>
+      <c r="J39" s="40">
+        <v>43785.75953703704</v>
+      </c>
+      <c r="K39" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="38">
+        <v>33578</v>
+      </c>
+      <c r="B40" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C40" s="38">
+        <v>2.0191116181333098E+20</v>
+      </c>
+      <c r="D40" s="39">
+        <v>2</v>
+      </c>
+      <c r="E40" s="38">
+        <v>454</v>
+      </c>
+      <c r="F40" s="38">
+        <v>454</v>
+      </c>
+      <c r="G40" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" s="40">
+        <v>43785.759027777778</v>
+      </c>
+      <c r="J40" s="40">
+        <v>43785.759351851855</v>
+      </c>
+      <c r="K40" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="38">
+        <v>33577</v>
+      </c>
+      <c r="B41" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C41" s="38">
+        <v>2.0191116181321099E+20</v>
+      </c>
+      <c r="D41" s="39">
+        <v>2</v>
+      </c>
+      <c r="E41" s="38">
+        <v>1263</v>
+      </c>
+      <c r="F41" s="38">
+        <v>1263</v>
+      </c>
+      <c r="G41" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" s="40">
+        <v>43785.759027777778</v>
+      </c>
+      <c r="J41" s="40">
+        <v>43785.75922453704</v>
+      </c>
+      <c r="K41" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="38">
+        <v>33576</v>
+      </c>
+      <c r="B42" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C42" s="38">
+        <v>2.0191116181309099E+20</v>
+      </c>
+      <c r="D42" s="39">
+        <v>2</v>
+      </c>
+      <c r="E42" s="38">
+        <v>293</v>
+      </c>
+      <c r="F42" s="38">
+        <v>293</v>
+      </c>
+      <c r="G42" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" s="40">
+        <v>43785.759027777778</v>
+      </c>
+      <c r="J42" s="40">
+        <v>43785.759097222224</v>
+      </c>
+      <c r="K42" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="38">
+        <v>33575</v>
+      </c>
+      <c r="B43" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C43" s="38">
+        <v>2.0191116181259099E+20</v>
+      </c>
+      <c r="D43" s="39">
+        <v>2</v>
+      </c>
+      <c r="E43" s="38">
+        <v>147.9</v>
+      </c>
+      <c r="F43" s="38">
+        <v>147.9</v>
+      </c>
+      <c r="G43" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" s="40">
+        <v>43785.759027777778</v>
+      </c>
+      <c r="J43" s="40">
+        <v>43785.758958333332</v>
+      </c>
+      <c r="K43" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="38">
+        <v>33574</v>
+      </c>
+      <c r="B44" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C44" s="38">
+        <v>2.0191116181247099E+20</v>
+      </c>
+      <c r="D44" s="39">
+        <v>2</v>
+      </c>
+      <c r="E44" s="38">
+        <v>141</v>
+      </c>
+      <c r="F44" s="38">
+        <v>141</v>
+      </c>
+      <c r="G44" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I44" s="40">
+        <v>43785.758333333331</v>
+      </c>
+      <c r="J44" s="40">
+        <v>43785.758831018517</v>
+      </c>
+      <c r="K44" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="38">
+        <v>33573</v>
+      </c>
+      <c r="B45" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C45" s="38">
+        <v>2.0191116181238101E+20</v>
+      </c>
+      <c r="D45" s="39">
+        <v>1</v>
+      </c>
+      <c r="E45" s="38">
+        <v>33</v>
+      </c>
+      <c r="F45" s="38">
+        <v>33</v>
+      </c>
+      <c r="G45" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45" s="40">
+        <v>43785.758333333331</v>
+      </c>
+      <c r="J45" s="40">
+        <v>43785.758726851855</v>
+      </c>
+      <c r="K45" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="38">
+        <v>33572</v>
+      </c>
+      <c r="B46" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C46" s="38">
+        <v>2.0191116181227101E+20</v>
+      </c>
+      <c r="D46" s="39">
+        <v>2</v>
+      </c>
+      <c r="E46" s="38">
+        <v>178</v>
+      </c>
+      <c r="F46" s="38">
+        <v>178</v>
+      </c>
+      <c r="G46" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46" s="40">
+        <v>43785.758333333331</v>
+      </c>
+      <c r="J46" s="40">
+        <v>43785.758506944447</v>
+      </c>
+      <c r="K46" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="38">
+        <v>33571</v>
+      </c>
+      <c r="B47" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C47" s="38">
+        <v>2.01911161811481E+20</v>
+      </c>
+      <c r="D47" s="39">
+        <v>2</v>
+      </c>
+      <c r="E47" s="38">
+        <v>767</v>
+      </c>
+      <c r="F47" s="38">
+        <v>767</v>
+      </c>
+      <c r="G47" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47" s="40">
+        <v>43785.757638888892</v>
+      </c>
+      <c r="J47" s="40">
+        <v>43785.757037037038</v>
+      </c>
+      <c r="K47" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="38">
+        <v>33560</v>
+      </c>
+      <c r="B48" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C48" s="38">
+        <v>2.01911161139231E+20</v>
+      </c>
+      <c r="D48" s="39">
+        <v>2</v>
+      </c>
+      <c r="E48" s="38">
+        <v>1093</v>
+      </c>
+      <c r="F48" s="38">
+        <v>1093</v>
+      </c>
+      <c r="G48" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48" s="40">
+        <v>43785.48541666667</v>
+      </c>
+      <c r="J48" s="40">
+        <v>43785.485659722224</v>
+      </c>
+      <c r="K48" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="44">
+        <v>33559</v>
+      </c>
+      <c r="B49" s="44">
+        <v>15874</v>
+      </c>
+      <c r="C49" s="44">
+        <v>2.0191116113915101E+20</v>
+      </c>
+      <c r="D49" s="45">
+        <v>2</v>
+      </c>
+      <c r="E49" s="44">
+        <v>840</v>
+      </c>
+      <c r="F49" s="44">
+        <v>840</v>
+      </c>
+      <c r="G49" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="I49" s="46">
+        <v>43785.48541666667</v>
+      </c>
+      <c r="J49" s="46">
+        <v>43785.485520833332</v>
+      </c>
+      <c r="K49" s="47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="38">
+        <v>33557</v>
+      </c>
+      <c r="B50" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C50" s="38">
+        <v>2.01911161138551E+20</v>
+      </c>
+      <c r="D50" s="39">
+        <v>2</v>
+      </c>
+      <c r="E50" s="38">
+        <v>246</v>
+      </c>
+      <c r="F50" s="38">
+        <v>246</v>
+      </c>
+      <c r="G50" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I50" s="40">
+        <v>43785.48541666667</v>
+      </c>
+      <c r="J50" s="40">
+        <v>43785.485324074078</v>
+      </c>
+      <c r="K50" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="38">
+        <v>33555</v>
+      </c>
+      <c r="B51" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C51" s="38">
+        <v>2.0191116113836101E+20</v>
+      </c>
+      <c r="D51" s="39">
+        <v>2</v>
+      </c>
+      <c r="E51" s="38">
+        <v>818</v>
+      </c>
+      <c r="F51" s="38">
+        <v>818</v>
+      </c>
+      <c r="G51" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" s="40">
+        <v>43785.484722222223</v>
+      </c>
+      <c r="J51" s="40">
+        <v>43785.485115740739</v>
+      </c>
+      <c r="K51" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="38">
+        <v>33554</v>
+      </c>
+      <c r="B52" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C52" s="38">
+        <v>2.01911161138261E+20</v>
+      </c>
+      <c r="D52" s="39">
+        <v>2</v>
+      </c>
+      <c r="E52" s="38">
+        <v>278</v>
+      </c>
+      <c r="F52" s="38">
+        <v>278</v>
+      </c>
+      <c r="G52" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I52" s="40">
+        <v>43785.484722222223</v>
+      </c>
+      <c r="J52" s="40">
+        <v>43785.484988425924</v>
+      </c>
+      <c r="K52" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="38">
+        <v>33551</v>
+      </c>
+      <c r="B53" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C53" s="38">
+        <v>2.01911161137571E+20</v>
+      </c>
+      <c r="D53" s="39">
+        <v>2</v>
+      </c>
+      <c r="E53" s="38">
+        <v>47</v>
+      </c>
+      <c r="F53" s="38">
+        <v>47</v>
+      </c>
+      <c r="G53" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I53" s="40">
+        <v>43785.484722222223</v>
+      </c>
+      <c r="J53" s="40">
+        <v>43785.484606481485</v>
+      </c>
+      <c r="K53" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="38">
+        <v>33550</v>
+      </c>
+      <c r="B54" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C54" s="38">
+        <v>2.01911161137301E+20</v>
+      </c>
+      <c r="D54" s="39">
+        <v>2</v>
+      </c>
+      <c r="E54" s="38">
+        <v>629</v>
+      </c>
+      <c r="F54" s="38">
+        <v>629</v>
+      </c>
+      <c r="G54" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I54" s="40">
+        <v>43785.484027777777</v>
+      </c>
+      <c r="J54" s="40">
+        <v>43785.484317129631</v>
+      </c>
+      <c r="K54" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="38">
+        <v>33548</v>
+      </c>
+      <c r="B55" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C55" s="38">
+        <v>2.0191116113711101E+20</v>
+      </c>
+      <c r="D55" s="39">
+        <v>2</v>
+      </c>
+      <c r="E55" s="38">
+        <v>933</v>
+      </c>
+      <c r="F55" s="38">
+        <v>933</v>
+      </c>
+      <c r="G55" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I55" s="40">
+        <v>43785.484027777777</v>
+      </c>
+      <c r="J55" s="40">
+        <v>43785.484120370369</v>
+      </c>
+      <c r="K55" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="38">
+        <v>33547</v>
+      </c>
+      <c r="B56" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C56" s="38">
+        <v>2.0191116113703099E+20</v>
+      </c>
+      <c r="D56" s="39">
+        <v>2</v>
+      </c>
+      <c r="E56" s="38">
+        <v>946</v>
+      </c>
+      <c r="F56" s="38">
+        <v>946</v>
+      </c>
+      <c r="G56" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I56" s="40">
+        <v>43785.484027777777</v>
+      </c>
+      <c r="J56" s="40">
+        <v>43785.484039351853</v>
+      </c>
+      <c r="K56" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="38">
+        <v>33546</v>
+      </c>
+      <c r="B57" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C57" s="38">
+        <v>2.01911161136551E+20</v>
+      </c>
+      <c r="D57" s="39">
+        <v>2</v>
+      </c>
+      <c r="E57" s="38">
+        <v>1438</v>
+      </c>
+      <c r="F57" s="38">
+        <v>1438</v>
+      </c>
+      <c r="G57" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I57" s="40">
+        <v>43785.484027777777</v>
+      </c>
+      <c r="J57" s="40">
+        <v>43785.483935185184</v>
+      </c>
+      <c r="K57" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="38">
+        <v>33545</v>
+      </c>
+      <c r="B58" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C58" s="38">
+        <v>2.0191116113646099E+20</v>
+      </c>
+      <c r="D58" s="39">
+        <v>2</v>
+      </c>
+      <c r="E58" s="38">
+        <v>556</v>
+      </c>
+      <c r="F58" s="38">
+        <v>556</v>
+      </c>
+      <c r="G58" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I58" s="40">
+        <v>43785.48333333333</v>
+      </c>
+      <c r="J58" s="40">
+        <v>43785.483831018515</v>
+      </c>
+      <c r="K58" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="38">
+        <v>33544</v>
+      </c>
+      <c r="B59" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C59" s="38">
+        <v>2.01911161136381E+20</v>
+      </c>
+      <c r="D59" s="39">
+        <v>2</v>
+      </c>
+      <c r="E59" s="38">
+        <v>411.9</v>
+      </c>
+      <c r="F59" s="38">
+        <v>411.9</v>
+      </c>
+      <c r="G59" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I59" s="40">
+        <v>43785.48333333333</v>
+      </c>
+      <c r="J59" s="40">
+        <v>43785.483738425923</v>
+      </c>
+      <c r="K59" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="38">
+        <v>33543</v>
+      </c>
+      <c r="B60" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C60" s="38">
+        <v>2.0191116113631101E+20</v>
+      </c>
+      <c r="D60" s="39">
+        <v>2</v>
+      </c>
+      <c r="E60" s="38">
+        <v>359</v>
+      </c>
+      <c r="F60" s="38">
+        <v>359</v>
+      </c>
+      <c r="G60" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I60" s="40">
+        <v>43785.48333333333</v>
+      </c>
+      <c r="J60" s="40">
+        <v>43785.48364583333</v>
+      </c>
+      <c r="K60" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="38">
+        <v>33542</v>
+      </c>
+      <c r="B61" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C61" s="38">
+        <v>2.01911161136221E+20</v>
+      </c>
+      <c r="D61" s="39">
+        <v>2</v>
+      </c>
+      <c r="E61" s="38">
+        <v>262</v>
+      </c>
+      <c r="F61" s="38">
+        <v>262</v>
+      </c>
+      <c r="G61" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H61" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I61" s="40">
+        <v>43785.48333333333</v>
+      </c>
+      <c r="J61" s="40">
+        <v>43785.483449074076</v>
+      </c>
+      <c r="K61" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="38">
+        <v>33541</v>
+      </c>
+      <c r="B62" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C62" s="38">
+        <v>2.0191116113606099E+20</v>
+      </c>
+      <c r="D62" s="39">
+        <v>2</v>
+      </c>
+      <c r="E62" s="38">
+        <v>248</v>
+      </c>
+      <c r="F62" s="38">
+        <v>248</v>
+      </c>
+      <c r="G62" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I62" s="40">
+        <v>43785.48333333333</v>
+      </c>
+      <c r="J62" s="40">
+        <v>43785.483356481483</v>
+      </c>
+      <c r="K62" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="38">
+        <v>33540</v>
+      </c>
+      <c r="B63" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C63" s="38">
+        <v>2.0191116113557101E+20</v>
+      </c>
+      <c r="D63" s="39">
+        <v>2</v>
+      </c>
+      <c r="E63" s="38">
+        <v>458</v>
+      </c>
+      <c r="F63" s="38">
+        <v>458</v>
+      </c>
+      <c r="G63" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H63" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I63" s="40">
+        <v>43785.48333333333</v>
+      </c>
+      <c r="J63" s="40">
+        <v>43785.483263888891</v>
+      </c>
+      <c r="K63" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="38">
+        <v>33539</v>
+      </c>
+      <c r="B64" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C64" s="38">
+        <v>2.0191116113550098E+20</v>
+      </c>
+      <c r="D64" s="39">
+        <v>2</v>
+      </c>
+      <c r="E64" s="38">
+        <v>301</v>
+      </c>
+      <c r="F64" s="38">
+        <v>301</v>
+      </c>
+      <c r="G64" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I64" s="40">
+        <v>43785.482638888891</v>
+      </c>
+      <c r="J64" s="40">
+        <v>43785.483182870368</v>
+      </c>
+      <c r="K64" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="38">
+        <v>33538</v>
+      </c>
+      <c r="B65" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C65" s="38">
+        <v>2.0191116113540101E+20</v>
+      </c>
+      <c r="D65" s="39">
+        <v>1</v>
+      </c>
+      <c r="E65" s="38">
+        <v>790</v>
+      </c>
+      <c r="F65" s="38">
+        <v>790</v>
+      </c>
+      <c r="G65" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H65" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I65" s="40">
+        <v>43785.482638888891</v>
+      </c>
+      <c r="J65" s="40">
+        <v>43785.483067129629</v>
+      </c>
+      <c r="K65" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="38">
+        <v>33537</v>
+      </c>
+      <c r="B66" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C66" s="38">
+        <v>2.0191116113532099E+20</v>
+      </c>
+      <c r="D66" s="39">
+        <v>2</v>
+      </c>
+      <c r="E66" s="38">
+        <v>809</v>
+      </c>
+      <c r="F66" s="38">
+        <v>809</v>
+      </c>
+      <c r="G66" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I66" s="40">
+        <v>43785.482638888891</v>
+      </c>
+      <c r="J66" s="40">
+        <v>43785.482986111114</v>
+      </c>
+      <c r="K66" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="38">
+        <v>33536</v>
+      </c>
+      <c r="B67" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C67" s="38">
+        <v>2.01911161135251E+20</v>
+      </c>
+      <c r="D67" s="39">
+        <v>2</v>
+      </c>
+      <c r="E67" s="38">
+        <v>339</v>
+      </c>
+      <c r="F67" s="38">
+        <v>339</v>
+      </c>
+      <c r="G67" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H67" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I67" s="40">
+        <v>43785.482638888891</v>
+      </c>
+      <c r="J67" s="40">
+        <v>43785.482905092591</v>
+      </c>
+      <c r="K67" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="38">
+        <v>33535</v>
+      </c>
+      <c r="B68" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C68" s="38">
+        <v>2.0191116113517101E+20</v>
+      </c>
+      <c r="D68" s="39">
+        <v>1</v>
+      </c>
+      <c r="E68" s="38">
+        <v>398</v>
+      </c>
+      <c r="F68" s="38">
+        <v>398</v>
+      </c>
+      <c r="G68" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H68" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I68" s="40">
+        <v>43785.482638888891</v>
+      </c>
+      <c r="J68" s="40">
+        <v>43785.482800925929</v>
+      </c>
+      <c r="K68" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="44">
+        <v>33534</v>
+      </c>
+      <c r="B69" s="44">
+        <v>15874</v>
+      </c>
+      <c r="C69" s="44">
+        <v>2.0191116113509099E+20</v>
+      </c>
+      <c r="D69" s="45">
+        <v>2</v>
+      </c>
+      <c r="E69" s="44">
+        <v>498</v>
+      </c>
+      <c r="F69" s="44">
+        <v>498</v>
+      </c>
+      <c r="G69" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H69" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="I69" s="46">
+        <v>43785.482638888891</v>
+      </c>
+      <c r="J69" s="46">
+        <v>43785.482719907406</v>
+      </c>
+      <c r="K69" s="47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="38">
+        <v>33533</v>
+      </c>
+      <c r="B70" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C70" s="38">
+        <v>2.01911161135021E+20</v>
+      </c>
+      <c r="D70" s="39">
+        <v>2</v>
+      </c>
+      <c r="E70" s="38">
+        <v>1136</v>
+      </c>
+      <c r="F70" s="38">
+        <v>1136</v>
+      </c>
+      <c r="G70" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H70" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I70" s="40">
+        <v>43785.482638888891</v>
+      </c>
+      <c r="J70" s="40">
+        <v>43785.482627314814</v>
+      </c>
+      <c r="K70" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="38">
+        <v>33532</v>
+      </c>
+      <c r="B71" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C71" s="38">
+        <v>2.0191116113454101E+20</v>
+      </c>
+      <c r="D71" s="39">
+        <v>2</v>
+      </c>
+      <c r="E71" s="38">
+        <v>789.9</v>
+      </c>
+      <c r="F71" s="38">
+        <v>789.9</v>
+      </c>
+      <c r="G71" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H71" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I71" s="40">
+        <v>43785.481944444444</v>
+      </c>
+      <c r="J71" s="40">
+        <v>43785.482534722221</v>
+      </c>
+      <c r="K71" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="38">
+        <v>33531</v>
+      </c>
+      <c r="B72" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C72" s="38">
+        <v>2.01911161134451E+20</v>
+      </c>
+      <c r="D72" s="39">
+        <v>2</v>
+      </c>
+      <c r="E72" s="38">
+        <v>403</v>
+      </c>
+      <c r="F72" s="38">
+        <v>403</v>
+      </c>
+      <c r="G72" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H72" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I72" s="40">
+        <v>43785.481944444444</v>
+      </c>
+      <c r="J72" s="40">
+        <v>43785.482430555552</v>
+      </c>
+      <c r="K72" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="38">
+        <v>33530</v>
+      </c>
+      <c r="B73" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C73" s="38">
+        <v>2.0191116113438101E+20</v>
+      </c>
+      <c r="D73" s="39">
+        <v>2</v>
+      </c>
+      <c r="E73" s="38">
+        <v>648</v>
+      </c>
+      <c r="F73" s="38">
+        <v>648</v>
+      </c>
+      <c r="G73" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H73" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I73" s="40">
+        <v>43785.481944444444</v>
+      </c>
+      <c r="J73" s="40">
+        <v>43785.482349537036</v>
+      </c>
+      <c r="K73" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="38">
+        <v>33529</v>
+      </c>
+      <c r="B74" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C74" s="38">
+        <v>2.0191116113430099E+20</v>
+      </c>
+      <c r="D74" s="39">
+        <v>2</v>
+      </c>
+      <c r="E74" s="38">
+        <v>852</v>
+      </c>
+      <c r="F74" s="38">
+        <v>852</v>
+      </c>
+      <c r="G74" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H74" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I74" s="40">
+        <v>43785.481944444444</v>
+      </c>
+      <c r="J74" s="40">
+        <v>43785.482256944444</v>
+      </c>
+      <c r="K74" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="38">
+        <v>33528</v>
+      </c>
+      <c r="B75" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C75" s="38">
+        <v>2.0191116113423099E+20</v>
+      </c>
+      <c r="D75" s="39">
+        <v>2</v>
+      </c>
+      <c r="E75" s="38">
+        <v>1064</v>
+      </c>
+      <c r="F75" s="38">
+        <v>1064</v>
+      </c>
+      <c r="G75" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H75" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I75" s="40">
+        <v>43785.481944444444</v>
+      </c>
+      <c r="J75" s="40">
+        <v>43785.482175925928</v>
+      </c>
+      <c r="K75" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="38">
+        <v>33527</v>
+      </c>
+      <c r="B76" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C76" s="38">
+        <v>2.0191116113414101E+20</v>
+      </c>
+      <c r="D76" s="39">
+        <v>2</v>
+      </c>
+      <c r="E76" s="38">
+        <v>1410</v>
+      </c>
+      <c r="F76" s="38">
+        <v>1410</v>
+      </c>
+      <c r="G76" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H76" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I76" s="40">
+        <v>43785.481944444444</v>
+      </c>
+      <c r="J76" s="40">
+        <v>43785.482071759259</v>
+      </c>
+      <c r="K76" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="38">
+        <v>33526</v>
+      </c>
+      <c r="B77" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C77" s="38">
+        <v>2.0191116113406099E+20</v>
+      </c>
+      <c r="D77" s="39">
+        <v>2</v>
+      </c>
+      <c r="E77" s="38">
+        <v>224</v>
+      </c>
+      <c r="F77" s="38">
+        <v>224</v>
+      </c>
+      <c r="G77" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H77" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I77" s="40">
+        <v>43785.481944444444</v>
+      </c>
+      <c r="J77" s="40">
+        <v>43785.481979166667</v>
+      </c>
+      <c r="K77" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="38">
+        <v>33525</v>
+      </c>
+      <c r="B78" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C78" s="38">
+        <v>2.0191116113357101E+20</v>
+      </c>
+      <c r="D78" s="39">
+        <v>2</v>
+      </c>
+      <c r="E78" s="38">
+        <v>524</v>
+      </c>
+      <c r="F78" s="38">
+        <v>524</v>
+      </c>
+      <c r="G78" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H78" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I78" s="40">
+        <v>43785.481944444444</v>
+      </c>
+      <c r="J78" s="40">
+        <v>43785.481874999998</v>
+      </c>
+      <c r="K78" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="38">
+        <v>33524</v>
+      </c>
+      <c r="B79" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C79" s="38">
+        <v>2.0191116113347101E+20</v>
+      </c>
+      <c r="D79" s="39">
+        <v>2</v>
+      </c>
+      <c r="E79" s="38">
+        <v>118</v>
+      </c>
+      <c r="F79" s="38">
+        <v>118</v>
+      </c>
+      <c r="G79" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H79" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I79" s="40">
+        <v>43785.481249999997</v>
+      </c>
+      <c r="J79" s="40">
+        <v>43785.481759259259</v>
+      </c>
+      <c r="K79" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="38">
+        <v>33523</v>
+      </c>
+      <c r="B80" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C80" s="38">
+        <v>2.0191116113338099E+20</v>
+      </c>
+      <c r="D80" s="39">
+        <v>1</v>
+      </c>
+      <c r="E80" s="38">
+        <v>150</v>
+      </c>
+      <c r="F80" s="38">
+        <v>150</v>
+      </c>
+      <c r="G80" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H80" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I80" s="40">
+        <v>43785.481249999997</v>
+      </c>
+      <c r="J80" s="40">
+        <v>43785.48165509259</v>
+      </c>
+      <c r="K80" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="38">
+        <v>33522</v>
+      </c>
+      <c r="B81" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C81" s="38">
+        <v>2.0191116113324101E+20</v>
+      </c>
+      <c r="D81" s="39">
+        <v>1</v>
+      </c>
+      <c r="E81" s="38">
+        <v>50</v>
+      </c>
+      <c r="F81" s="38">
+        <v>50</v>
+      </c>
+      <c r="G81" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H81" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I81" s="40">
+        <v>43785.481249999997</v>
+      </c>
+      <c r="J81" s="40">
+        <v>43785.481504629628</v>
+      </c>
+      <c r="K81" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="38">
+        <v>33521</v>
+      </c>
+      <c r="B82" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C82" s="38">
+        <v>2.0191116113316099E+20</v>
+      </c>
+      <c r="D82" s="39">
+        <v>2</v>
+      </c>
+      <c r="E82" s="38">
+        <v>822</v>
+      </c>
+      <c r="F82" s="38">
+        <v>822</v>
+      </c>
+      <c r="G82" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H82" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I82" s="40">
+        <v>43785.481249999997</v>
+      </c>
+      <c r="J82" s="40">
+        <v>43785.481412037036</v>
+      </c>
+      <c r="K82" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="38">
+        <v>33519</v>
+      </c>
+      <c r="B83" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C83" s="38">
+        <v>2.0191116113301101E+20</v>
+      </c>
+      <c r="D83" s="39">
+        <v>2</v>
+      </c>
+      <c r="E83" s="38">
+        <v>549</v>
+      </c>
+      <c r="F83" s="38">
+        <v>549</v>
+      </c>
+      <c r="G83" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H83" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I83" s="40">
+        <v>43785.481249999997</v>
+      </c>
+      <c r="J83" s="40">
+        <v>43785.481226851851</v>
+      </c>
+      <c r="K83" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="38">
+        <v>33517</v>
+      </c>
+      <c r="B84" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C84" s="38">
+        <v>2.01911161132461E+20</v>
+      </c>
+      <c r="D84" s="39">
+        <v>2</v>
+      </c>
+      <c r="E84" s="38">
+        <v>198.9</v>
+      </c>
+      <c r="F84" s="38">
+        <v>198.9</v>
+      </c>
+      <c r="G84" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H84" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I84" s="40">
+        <v>43785.480555555558</v>
+      </c>
+      <c r="J84" s="40">
+        <v>43785.481053240743</v>
+      </c>
+      <c r="K84" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="38">
+        <v>33516</v>
+      </c>
+      <c r="B85" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C85" s="38">
+        <v>2.0191116113237098E+20</v>
+      </c>
+      <c r="D85" s="39">
+        <v>2</v>
+      </c>
+      <c r="E85" s="38">
+        <v>618</v>
+      </c>
+      <c r="F85" s="38">
+        <v>618</v>
+      </c>
+      <c r="G85" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H85" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I85" s="40">
+        <v>43785.480555555558</v>
+      </c>
+      <c r="J85" s="40">
+        <v>43785.48096064815</v>
+      </c>
+      <c r="K85" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="38">
+        <v>33515</v>
+      </c>
+      <c r="B86" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C86" s="38">
+        <v>2.0191116113230099E+20</v>
+      </c>
+      <c r="D86" s="39">
+        <v>2</v>
+      </c>
+      <c r="E86" s="38">
+        <v>655</v>
+      </c>
+      <c r="F86" s="38">
+        <v>655</v>
+      </c>
+      <c r="G86" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H86" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I86" s="40">
+        <v>43785.480555555558</v>
+      </c>
+      <c r="J86" s="40">
+        <v>43785.480868055558</v>
+      </c>
+      <c r="K86" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="38">
+        <v>33514</v>
+      </c>
+      <c r="B87" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C87" s="38">
+        <v>2.0191116113222101E+20</v>
+      </c>
+      <c r="D87" s="39">
+        <v>2</v>
+      </c>
+      <c r="E87" s="38">
+        <v>928</v>
+      </c>
+      <c r="F87" s="38">
+        <v>928</v>
+      </c>
+      <c r="G87" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H87" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I87" s="40">
+        <v>43785.480555555558</v>
+      </c>
+      <c r="J87" s="40">
+        <v>43785.480775462966</v>
+      </c>
+      <c r="K87" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="41">
+        <v>33513</v>
+      </c>
+      <c r="B88" s="41">
+        <v>15874</v>
+      </c>
+      <c r="C88" s="41">
+        <v>2.0191116113214099E+20</v>
+      </c>
+      <c r="D88" s="42">
+        <v>2</v>
+      </c>
+      <c r="E88" s="41">
+        <v>259</v>
+      </c>
+      <c r="F88" s="41">
+        <v>259</v>
+      </c>
+      <c r="G88" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H88" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="I88" s="43">
+        <v>43785.480555555558</v>
+      </c>
+      <c r="J88" s="43">
+        <v>43785.480682870373</v>
+      </c>
+      <c r="K88" s="49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="44">
+        <v>33512</v>
+      </c>
+      <c r="B89" s="44">
+        <v>15874</v>
+      </c>
+      <c r="C89" s="44">
+        <v>2.01911161132061E+20</v>
+      </c>
+      <c r="D89" s="45">
+        <v>2</v>
+      </c>
+      <c r="E89" s="44">
+        <v>514</v>
+      </c>
+      <c r="F89" s="44">
+        <v>514</v>
+      </c>
+      <c r="G89" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H89" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="I89" s="46">
+        <v>43785.480555555558</v>
+      </c>
+      <c r="J89" s="46">
+        <v>43785.480590277781</v>
+      </c>
+      <c r="K89" s="47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="38">
+        <v>33511</v>
+      </c>
+      <c r="B90" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C90" s="38">
+        <v>2.0191116113158101E+20</v>
+      </c>
+      <c r="D90" s="39">
+        <v>1</v>
+      </c>
+      <c r="E90" s="38">
+        <v>379</v>
+      </c>
+      <c r="F90" s="38">
+        <v>379</v>
+      </c>
+      <c r="G90" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H90" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I90" s="40">
+        <v>43785.480555555558</v>
+      </c>
+      <c r="J90" s="40">
+        <v>43785.480486111112</v>
+      </c>
+      <c r="K90" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="38">
+        <v>33510</v>
+      </c>
+      <c r="B91" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C91" s="38">
+        <v>2.01911161131491E+20</v>
+      </c>
+      <c r="D91" s="39">
+        <v>2</v>
+      </c>
+      <c r="E91" s="38">
+        <v>97</v>
+      </c>
+      <c r="F91" s="38">
+        <v>97</v>
+      </c>
+      <c r="G91" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H91" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I91" s="40">
+        <v>43785.479861111111</v>
+      </c>
+      <c r="J91" s="40">
+        <v>43785.480393518519</v>
+      </c>
+      <c r="K91" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="38">
+        <v>33509</v>
+      </c>
+      <c r="B92" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C92" s="38">
+        <v>2.0191116113142101E+20</v>
+      </c>
+      <c r="D92" s="39">
+        <v>2</v>
+      </c>
+      <c r="E92" s="38">
+        <v>309</v>
+      </c>
+      <c r="F92" s="38">
+        <v>309</v>
+      </c>
+      <c r="G92" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H92" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I92" s="40">
+        <v>43785.479861111111</v>
+      </c>
+      <c r="J92" s="40">
+        <v>43785.480312500003</v>
+      </c>
+      <c r="K92" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="38">
+        <v>33508</v>
+      </c>
+      <c r="B93" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C93" s="38">
+        <v>2.0191116113134099E+20</v>
+      </c>
+      <c r="D93" s="39">
+        <v>2</v>
+      </c>
+      <c r="E93" s="38">
+        <v>158.9</v>
+      </c>
+      <c r="F93" s="38">
+        <v>158.9</v>
+      </c>
+      <c r="G93" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H93" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I93" s="40">
+        <v>43785.479861111111</v>
+      </c>
+      <c r="J93" s="40">
+        <v>43785.480219907404</v>
+      </c>
+      <c r="K93" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="38">
+        <v>33507</v>
+      </c>
+      <c r="B94" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C94" s="38">
+        <v>2.0191116113125101E+20</v>
+      </c>
+      <c r="D94" s="39">
+        <v>2</v>
+      </c>
+      <c r="E94" s="38">
+        <v>298</v>
+      </c>
+      <c r="F94" s="38">
+        <v>298</v>
+      </c>
+      <c r="G94" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H94" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I94" s="40">
+        <v>43785.479861111111</v>
+      </c>
+      <c r="J94" s="40">
+        <v>43785.480127314811</v>
+      </c>
+      <c r="K94" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="38">
+        <v>33506</v>
+      </c>
+      <c r="B95" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C95" s="38">
+        <v>2.0191116113117099E+20</v>
+      </c>
+      <c r="D95" s="39">
+        <v>2</v>
+      </c>
+      <c r="E95" s="38">
+        <v>569</v>
+      </c>
+      <c r="F95" s="38">
+        <v>569</v>
+      </c>
+      <c r="G95" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H95" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I95" s="40">
+        <v>43785.479861111111</v>
+      </c>
+      <c r="J95" s="40">
+        <v>43785.480023148149</v>
+      </c>
+      <c r="K95" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="38">
+        <v>33505</v>
+      </c>
+      <c r="B96" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C96" s="38">
+        <v>2.01911161131091E+20</v>
+      </c>
+      <c r="D96" s="39">
+        <v>2</v>
+      </c>
+      <c r="E96" s="38">
+        <v>1366</v>
+      </c>
+      <c r="F96" s="38">
+        <v>1366</v>
+      </c>
+      <c r="G96" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H96" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I96" s="40">
+        <v>43785.479861111111</v>
+      </c>
+      <c r="J96" s="40">
+        <v>43785.479930555557</v>
+      </c>
+      <c r="K96" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="38">
+        <v>33504</v>
+      </c>
+      <c r="B97" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C97" s="38">
+        <v>2.0191116113101101E+20</v>
+      </c>
+      <c r="D97" s="39">
+        <v>2</v>
+      </c>
+      <c r="E97" s="38">
+        <v>969</v>
+      </c>
+      <c r="F97" s="38">
+        <v>969</v>
+      </c>
+      <c r="G97" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H97" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I97" s="40">
+        <v>43785.479861111111</v>
+      </c>
+      <c r="J97" s="40">
+        <v>43785.479826388888</v>
+      </c>
+      <c r="K97" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="41">
+        <v>33503</v>
+      </c>
+      <c r="B98" s="41">
+        <v>15874</v>
+      </c>
+      <c r="C98" s="41">
+        <v>2.01911161130521E+20</v>
+      </c>
+      <c r="D98" s="42">
+        <v>2</v>
+      </c>
+      <c r="E98" s="41">
+        <v>836</v>
+      </c>
+      <c r="F98" s="41">
+        <v>836</v>
+      </c>
+      <c r="G98" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H98" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="I98" s="43">
+        <v>43785.479166666664</v>
+      </c>
+      <c r="J98" s="43">
+        <v>43785.479675925926</v>
+      </c>
+      <c r="K98" s="49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F100" s="55"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="K9" r:id="rId1" display="javascript:;" xr:uid="{907F6B41-8824-43E9-8C1F-349FCC711A4A}"/>
+    <hyperlink ref="K10" r:id="rId2" display="javascript:;" xr:uid="{3BA4EA6C-9DBB-408B-8454-5446AE3C143E}"/>
+    <hyperlink ref="K11" r:id="rId3" display="javascript:;" xr:uid="{74C812CF-8161-4F9B-9EE4-3A718A8AAA4D}"/>
+    <hyperlink ref="K12" r:id="rId4" display="javascript:;" xr:uid="{F80BF2AF-7144-4DFC-BDDD-8642BA6AE9E3}"/>
+    <hyperlink ref="K13" r:id="rId5" display="javascript:;" xr:uid="{BFDB0028-CA1B-4A6D-A9B2-79E07D466D02}"/>
+    <hyperlink ref="K14" r:id="rId6" display="javascript:;" xr:uid="{A9BDFF55-A339-4262-9032-023F52A8AE7F}"/>
+    <hyperlink ref="K15" r:id="rId7" display="javascript:;" xr:uid="{F4A63C55-5689-48DE-99AE-3D1E00D485AF}"/>
+    <hyperlink ref="K16" r:id="rId8" display="javascript:;" xr:uid="{F0410815-AF17-4205-AE06-CBD3041BD7D8}"/>
+    <hyperlink ref="K17" r:id="rId9" display="javascript:;" xr:uid="{C87E8181-2526-44E4-860B-05DEF0B4F8EC}"/>
+    <hyperlink ref="K18" r:id="rId10" display="javascript:;" xr:uid="{9370B332-288A-4EAB-BA23-2726B91B3926}"/>
+    <hyperlink ref="K19" r:id="rId11" display="javascript:;" xr:uid="{FF643DFB-830B-4825-87BE-183AAECFE1FB}"/>
+    <hyperlink ref="K20" r:id="rId12" display="javascript:;" xr:uid="{BD575704-0E52-4B5B-A572-2F698174B845}"/>
+    <hyperlink ref="K21" r:id="rId13" display="javascript:;" xr:uid="{BB8FE77C-79F6-4AEF-B22F-3AFF9FC7F14D}"/>
+    <hyperlink ref="K22" r:id="rId14" display="javascript:;" xr:uid="{296A5DF0-BB61-4B0A-90B5-543E51FED71E}"/>
+    <hyperlink ref="K23" r:id="rId15" display="javascript:;" xr:uid="{1F1C765F-AC74-4359-9D0E-9CC94E279A4C}"/>
+    <hyperlink ref="K24" r:id="rId16" display="javascript:;" xr:uid="{61123AEB-487D-48CC-A5E3-EC8DEAC7E4C1}"/>
+    <hyperlink ref="K25" r:id="rId17" display="javascript:;" xr:uid="{8854937A-23F5-49B1-9B19-2E2E984BDC27}"/>
+    <hyperlink ref="K26" r:id="rId18" display="javascript:;" xr:uid="{A2932B33-834A-4C0E-80F7-AA5566FD7B73}"/>
+    <hyperlink ref="K27" r:id="rId19" display="javascript:;" xr:uid="{3F8D958C-0964-486E-A55E-4491D2D96642}"/>
+    <hyperlink ref="K28" r:id="rId20" display="javascript:;" xr:uid="{6003B334-F3FC-4C4C-B149-4985C61296C9}"/>
+    <hyperlink ref="K29" r:id="rId21" display="javascript:;" xr:uid="{21F99E98-25DC-4E78-80E5-9749B9576414}"/>
+    <hyperlink ref="K30" r:id="rId22" display="javascript:;" xr:uid="{71B73714-F1D6-468F-A66C-8515E075323C}"/>
+    <hyperlink ref="K31" r:id="rId23" display="javascript:;" xr:uid="{C60D3C3E-3500-40F6-B4BA-A5E3C1E18883}"/>
+    <hyperlink ref="K32" r:id="rId24" display="javascript:;" xr:uid="{CDBCCA77-1F94-4783-8694-7B7E0B577D9C}"/>
+    <hyperlink ref="K33" r:id="rId25" display="javascript:;" xr:uid="{FDA94123-09ED-45FF-A74C-A14643799148}"/>
+    <hyperlink ref="K34" r:id="rId26" display="javascript:;" xr:uid="{31186C63-3C71-4190-AE18-DD1DB76363A6}"/>
+    <hyperlink ref="K35" r:id="rId27" display="javascript:;" xr:uid="{90305E89-2ECF-412E-AD4A-5B2343F173F4}"/>
+    <hyperlink ref="K36" r:id="rId28" display="javascript:;" xr:uid="{25FF70F4-3290-43EA-AF20-29CAF4EA7F60}"/>
+    <hyperlink ref="K37" r:id="rId29" display="javascript:;" xr:uid="{90C920D9-3ECE-48DC-904E-8447239F8307}"/>
+    <hyperlink ref="K38" r:id="rId30" display="javascript:;" xr:uid="{A614636D-592B-44D1-9B87-C33A80D084A2}"/>
+    <hyperlink ref="K39" r:id="rId31" display="javascript:;" xr:uid="{1EFF6490-F531-4837-9176-80CD4046C233}"/>
+    <hyperlink ref="K40" r:id="rId32" display="javascript:;" xr:uid="{EBD1123A-3B3A-439F-A63F-7F2919803135}"/>
+    <hyperlink ref="K41" r:id="rId33" display="javascript:;" xr:uid="{4A71C5C1-1092-4E0B-B00D-4CCBD91DFAE2}"/>
+    <hyperlink ref="K42" r:id="rId34" display="javascript:;" xr:uid="{E95674A5-9D3A-4E82-A9FC-C8080D29808A}"/>
+    <hyperlink ref="K43" r:id="rId35" display="javascript:;" xr:uid="{DE99D009-D4FF-446A-B69C-7F24FA2A15A6}"/>
+    <hyperlink ref="K44" r:id="rId36" display="javascript:;" xr:uid="{3B9F99E6-AC40-423A-80DF-2F80AF94E84D}"/>
+    <hyperlink ref="K45" r:id="rId37" display="javascript:;" xr:uid="{53EA9797-AFB4-4E09-9EF0-D937967E2FC1}"/>
+    <hyperlink ref="K46" r:id="rId38" display="javascript:;" xr:uid="{8952279B-63A8-480C-A90B-ECB74B37C4FF}"/>
+    <hyperlink ref="K47" r:id="rId39" display="javascript:;" xr:uid="{09A6022E-CECF-4A8D-9F43-6EC1428F92D5}"/>
+    <hyperlink ref="K48" r:id="rId40" display="javascript:;" xr:uid="{5F104408-0B64-4323-A58C-84BB5E15A63F}"/>
+    <hyperlink ref="K49" r:id="rId41" display="javascript:;" xr:uid="{2E9A5ECD-DA0F-4C2C-A447-40B8431BDD67}"/>
+    <hyperlink ref="K50" r:id="rId42" display="javascript:;" xr:uid="{CDE95F9D-F01A-4208-9A4D-C68CDADEF241}"/>
+    <hyperlink ref="K51" r:id="rId43" display="javascript:;" xr:uid="{BA1F369C-F53A-4048-930D-464E82B42833}"/>
+    <hyperlink ref="K52" r:id="rId44" display="javascript:;" xr:uid="{0C9CEEF0-12D0-47C4-A76D-050D1B16F65D}"/>
+    <hyperlink ref="K53" r:id="rId45" display="javascript:;" xr:uid="{3BB45791-8C29-477F-9973-294A5A8025B2}"/>
+    <hyperlink ref="K54" r:id="rId46" display="javascript:;" xr:uid="{43775A47-6FDE-4664-96CC-218DA516C42B}"/>
+    <hyperlink ref="K55" r:id="rId47" display="javascript:;" xr:uid="{143D3FD4-0E6B-47AF-B676-090AA6024F38}"/>
+    <hyperlink ref="K56" r:id="rId48" display="javascript:;" xr:uid="{746B40EC-AC89-4691-8765-3D84BF85176B}"/>
+    <hyperlink ref="K57" r:id="rId49" display="javascript:;" xr:uid="{6CCB80E8-DE79-42F1-A812-C376A3864A64}"/>
+    <hyperlink ref="K58" r:id="rId50" display="javascript:;" xr:uid="{E3A62536-A0AA-439D-8FE5-0E45260AED63}"/>
+    <hyperlink ref="K59" r:id="rId51" display="javascript:;" xr:uid="{BFA2F499-8D14-430C-9C57-730220128F1B}"/>
+    <hyperlink ref="K60" r:id="rId52" display="javascript:;" xr:uid="{BF107886-DFD4-4752-B7B5-63F0F0C88707}"/>
+    <hyperlink ref="K61" r:id="rId53" display="javascript:;" xr:uid="{EBA54F75-9E62-4B5C-BF6D-2D9AC354C538}"/>
+    <hyperlink ref="K62" r:id="rId54" display="javascript:;" xr:uid="{D89E54A3-0CF9-49EA-8BE2-DA423206DB34}"/>
+    <hyperlink ref="K63" r:id="rId55" display="javascript:;" xr:uid="{90942C28-CCE2-4565-A4C2-D6AF7CB5F05E}"/>
+    <hyperlink ref="K64" r:id="rId56" display="javascript:;" xr:uid="{CCD7ADA6-240B-4CA6-BB5B-67ECD795EEAC}"/>
+    <hyperlink ref="K65" r:id="rId57" display="javascript:;" xr:uid="{44C4491A-748C-4E12-8257-03A6B74A4F39}"/>
+    <hyperlink ref="K66" r:id="rId58" display="javascript:;" xr:uid="{9F9219FB-4FC6-4E9E-9809-636E72040E72}"/>
+    <hyperlink ref="K67" r:id="rId59" display="javascript:;" xr:uid="{F1C1925C-B384-4151-9102-F62D4458F09E}"/>
+    <hyperlink ref="K68" r:id="rId60" display="javascript:;" xr:uid="{22DC8164-3785-4460-80DE-8B5064F3FA17}"/>
+    <hyperlink ref="K69" r:id="rId61" display="javascript:;" xr:uid="{6BF1F771-536B-4BDB-B424-1D2F8DF8DFAD}"/>
+    <hyperlink ref="K70" r:id="rId62" display="javascript:;" xr:uid="{E2D46874-8B10-4564-BCC4-DB3595D7124A}"/>
+    <hyperlink ref="K71" r:id="rId63" display="javascript:;" xr:uid="{55763C4F-B4D0-43AD-B026-70A0695C3B70}"/>
+    <hyperlink ref="K72" r:id="rId64" display="javascript:;" xr:uid="{9EB5E9AD-E36D-4221-AD94-0F2CD5E2D14D}"/>
+    <hyperlink ref="K73" r:id="rId65" display="javascript:;" xr:uid="{E4CC060B-60E6-4FB5-A3E4-D1A9104DCBEE}"/>
+    <hyperlink ref="K74" r:id="rId66" display="javascript:;" xr:uid="{193DA0F0-7188-49C5-9B94-DB50A6894AC3}"/>
+    <hyperlink ref="K75" r:id="rId67" display="javascript:;" xr:uid="{46AC049A-D1E1-44D6-87A5-82244044A5A4}"/>
+    <hyperlink ref="K76" r:id="rId68" display="javascript:;" xr:uid="{8D7A3826-DFF2-4B45-8281-D1BA74E0F606}"/>
+    <hyperlink ref="K77" r:id="rId69" display="javascript:;" xr:uid="{F1E83613-4F6E-4BF8-8841-EB5C464520C2}"/>
+    <hyperlink ref="K78" r:id="rId70" display="javascript:;" xr:uid="{A1F978E0-6A2A-4E79-8B25-6D9C52D99572}"/>
+    <hyperlink ref="K79" r:id="rId71" display="javascript:;" xr:uid="{B118A09C-CB59-4747-9D68-2FC5387FFCA1}"/>
+    <hyperlink ref="K80" r:id="rId72" display="javascript:;" xr:uid="{537C525C-D632-4E14-8EFC-12D68A19B013}"/>
+    <hyperlink ref="K81" r:id="rId73" display="javascript:;" xr:uid="{74823A24-A314-4B52-B4A0-B0D7513EC856}"/>
+    <hyperlink ref="K82" r:id="rId74" display="javascript:;" xr:uid="{818A8E68-9E86-4DEC-97C1-9435DE11CD57}"/>
+    <hyperlink ref="K83" r:id="rId75" display="javascript:;" xr:uid="{AF1306B6-3E20-4003-9864-62206988A849}"/>
+    <hyperlink ref="K84" r:id="rId76" display="javascript:;" xr:uid="{D823C702-30B6-490D-AF18-52BF40CF3591}"/>
+    <hyperlink ref="K85" r:id="rId77" display="javascript:;" xr:uid="{E21A6BC8-73AF-435A-A1FE-C4E38151E8D5}"/>
+    <hyperlink ref="K86" r:id="rId78" display="javascript:;" xr:uid="{B131A0CB-D82A-4C8D-9BB0-FC5FB42B370F}"/>
+    <hyperlink ref="K87" r:id="rId79" display="javascript:;" xr:uid="{609C2242-F4B4-4311-8F71-EA8EF8E86D68}"/>
+    <hyperlink ref="K88" r:id="rId80" display="javascript:;" xr:uid="{2AF7E578-4FF2-4964-B5B4-B8A91908080E}"/>
+    <hyperlink ref="K89" r:id="rId81" display="javascript:;" xr:uid="{984C6380-6E5C-4A9E-BE65-DF8DCA768A39}"/>
+    <hyperlink ref="K90" r:id="rId82" display="javascript:;" xr:uid="{F9B4476B-7295-4A45-A8B3-425D07F17DDD}"/>
+    <hyperlink ref="K91" r:id="rId83" display="javascript:;" xr:uid="{6DD947ED-3A7E-4AD1-846B-BEA322EB58E2}"/>
+    <hyperlink ref="K92" r:id="rId84" display="javascript:;" xr:uid="{D1442DE8-40F1-4E58-8B73-3AD976BE50D7}"/>
+    <hyperlink ref="K93" r:id="rId85" display="javascript:;" xr:uid="{27FAC7C5-2B6E-40A3-B914-8EF8BF752BE3}"/>
+    <hyperlink ref="K94" r:id="rId86" display="javascript:;" xr:uid="{1B048F80-A12B-4796-817A-19F47F101542}"/>
+    <hyperlink ref="K95" r:id="rId87" display="javascript:;" xr:uid="{F749BC30-5D57-4818-AED7-EF27A7400590}"/>
+    <hyperlink ref="K96" r:id="rId88" display="javascript:;" xr:uid="{D7C71D91-717A-42A8-B99D-A7C3DFE8EC58}"/>
+    <hyperlink ref="K97" r:id="rId89" display="javascript:;" xr:uid="{4A4424B2-4907-4943-B1F0-BA5F26F1FEC6}"/>
+    <hyperlink ref="K98" r:id="rId90" display="javascript:;" xr:uid="{3792D004-8EBC-4C1F-8918-2FB589A99D4D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId91"/>
 </worksheet>
 </file>
 

--- a/s_d/麻吉.xlsx
+++ b/s_d/麻吉.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\王鹏远\Desktop\Electronic\s_d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953170BA-6A3A-4528-AC93-BD4897575C73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C5D861-2872-46A8-B0A8-087DBAB73437}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="714" firstSheet="8" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="714" firstSheet="8" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="19.10.29" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <sheet name="19.11.14" sheetId="17" r:id="rId17"/>
     <sheet name="19.11.15" sheetId="18" r:id="rId18"/>
     <sheet name="19.11.16" sheetId="19" r:id="rId19"/>
-    <sheet name="Sheet3" sheetId="20" r:id="rId20"/>
+    <sheet name="19.11.17" sheetId="20" r:id="rId20"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5445" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5696" uniqueCount="76">
   <si>
     <t>ID</t>
   </si>
@@ -601,7 +601,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -768,6 +768,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -35894,8 +35906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EEE4F7A-03EB-4D89-83C7-9CBA5898D7C3}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -36094,7 +36106,7 @@
         <v>72</v>
       </c>
       <c r="P6">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
@@ -36176,7 +36188,7 @@
         <v>68</v>
       </c>
       <c r="N8">
-        <v>-44.44</v>
+        <v>-34.44</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -41134,14 +41146,3010 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B1E331D-BF69-4CEB-B3F1-BA924C2D4262}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="13" max="13" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="44">
+        <v>33717</v>
+      </c>
+      <c r="B2" s="44">
+        <v>15874</v>
+      </c>
+      <c r="C2" s="44">
+        <v>2.01911171732401E+20</v>
+      </c>
+      <c r="D2" s="45">
+        <v>2</v>
+      </c>
+      <c r="E2" s="44">
+        <v>421</v>
+      </c>
+      <c r="F2" s="44">
+        <v>421</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="46">
+        <v>43786.730555555558</v>
+      </c>
+      <c r="J2" s="46">
+        <v>43786.730856481481</v>
+      </c>
+      <c r="K2" s="47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="38">
+        <v>33715</v>
+      </c>
+      <c r="B3" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C3" s="38">
+        <v>2.0191117173214102E+20</v>
+      </c>
+      <c r="D3" s="39">
+        <v>2</v>
+      </c>
+      <c r="E3" s="38">
+        <v>294</v>
+      </c>
+      <c r="F3" s="38">
+        <v>294</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="40">
+        <v>43786.730555555558</v>
+      </c>
+      <c r="J3" s="40">
+        <v>43786.730636574073</v>
+      </c>
+      <c r="K3" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="38">
+        <v>33714</v>
+      </c>
+      <c r="B4" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C4" s="38">
+        <v>2.0191117173156099E+20</v>
+      </c>
+      <c r="D4" s="39">
+        <v>3</v>
+      </c>
+      <c r="E4" s="38">
+        <v>426</v>
+      </c>
+      <c r="F4" s="38">
+        <v>426</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="40">
+        <v>43786.730555555558</v>
+      </c>
+      <c r="J4" s="40">
+        <v>43786.730416666665</v>
+      </c>
+      <c r="K4" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="38">
+        <v>33713</v>
+      </c>
+      <c r="B5" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C5" s="38">
+        <v>2.0191117173135101E+20</v>
+      </c>
+      <c r="D5" s="39">
+        <v>3</v>
+      </c>
+      <c r="E5" s="38">
+        <v>516</v>
+      </c>
+      <c r="F5" s="38">
+        <v>516</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="40">
+        <v>43786.729861111111</v>
+      </c>
+      <c r="J5" s="40">
+        <v>43786.730162037034</v>
+      </c>
+      <c r="K5" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="N5">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="38">
+        <v>33712</v>
+      </c>
+      <c r="B6" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C6" s="38">
+        <v>2.01911171731151E+20</v>
+      </c>
+      <c r="D6" s="39">
+        <v>3</v>
+      </c>
+      <c r="E6" s="38">
+        <v>870</v>
+      </c>
+      <c r="F6" s="38">
+        <v>870</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="40">
+        <v>43786.729861111111</v>
+      </c>
+      <c r="J6" s="40">
+        <v>43786.729907407411</v>
+      </c>
+      <c r="K6" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="N6">
+        <v>20000</v>
+      </c>
+      <c r="O6" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="38">
+        <v>33711</v>
+      </c>
+      <c r="B7" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C7" s="38">
+        <v>2.01911171730571E+20</v>
+      </c>
+      <c r="D7" s="39">
+        <v>3</v>
+      </c>
+      <c r="E7" s="38">
+        <v>727</v>
+      </c>
+      <c r="F7" s="38">
+        <v>727</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="40">
+        <v>43786.729861111111</v>
+      </c>
+      <c r="J7" s="40">
+        <v>43786.729594907411</v>
+      </c>
+      <c r="K7" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="N7">
+        <v>70171.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="38">
+        <v>33710</v>
+      </c>
+      <c r="B8" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C8" s="38">
+        <v>2.01911171730241E+20</v>
+      </c>
+      <c r="D8" s="39">
+        <v>3</v>
+      </c>
+      <c r="E8" s="38">
+        <v>1568</v>
+      </c>
+      <c r="F8" s="38">
+        <v>1568</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="40">
+        <v>43786.729166666664</v>
+      </c>
+      <c r="J8" s="40">
+        <v>43786.729386574072</v>
+      </c>
+      <c r="K8" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="N8">
+        <v>-226.24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="38">
+        <v>33709</v>
+      </c>
+      <c r="B9" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C9" s="38">
+        <v>2.0191117173010101E+20</v>
+      </c>
+      <c r="D9" s="39">
+        <v>3</v>
+      </c>
+      <c r="E9" s="38">
+        <v>580</v>
+      </c>
+      <c r="F9" s="38">
+        <v>580</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="40">
+        <v>43786.729166666664</v>
+      </c>
+      <c r="J9" s="40">
+        <v>43786.729212962964</v>
+      </c>
+      <c r="K9" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="38">
+        <v>33708</v>
+      </c>
+      <c r="B10" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C10" s="38">
+        <v>2.0191117172951099E+20</v>
+      </c>
+      <c r="D10" s="39">
+        <v>3</v>
+      </c>
+      <c r="E10" s="38">
+        <v>420</v>
+      </c>
+      <c r="F10" s="38">
+        <v>420</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="40">
+        <v>43786.728472222225</v>
+      </c>
+      <c r="J10" s="40">
+        <v>43786.729004629633</v>
+      </c>
+      <c r="K10" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="38">
+        <v>33707</v>
+      </c>
+      <c r="B11" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C11" s="38">
+        <v>2.01911171729151E+20</v>
+      </c>
+      <c r="D11" s="39">
+        <v>3</v>
+      </c>
+      <c r="E11" s="38">
+        <v>470</v>
+      </c>
+      <c r="F11" s="38">
+        <v>470</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="40">
+        <v>43786.728472222225</v>
+      </c>
+      <c r="J11" s="40">
+        <v>43786.728391203702</v>
+      </c>
+      <c r="K11" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="38">
+        <v>33705</v>
+      </c>
+      <c r="B12" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C12" s="38">
+        <v>2.0191117172825099E+20</v>
+      </c>
+      <c r="D12" s="39">
+        <v>3</v>
+      </c>
+      <c r="E12" s="38">
+        <v>1256</v>
+      </c>
+      <c r="F12" s="38">
+        <v>1256</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="40">
+        <v>43786.727777777778</v>
+      </c>
+      <c r="J12" s="40">
+        <v>43786.728020833332</v>
+      </c>
+      <c r="K12" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="41">
+        <v>33704</v>
+      </c>
+      <c r="B13" s="41">
+        <v>15874</v>
+      </c>
+      <c r="C13" s="41">
+        <v>2.0191117172808099E+20</v>
+      </c>
+      <c r="D13" s="42">
+        <v>3</v>
+      </c>
+      <c r="E13" s="41">
+        <v>597.79999999999995</v>
+      </c>
+      <c r="F13" s="41">
+        <v>597.79999999999995</v>
+      </c>
+      <c r="G13" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="43">
+        <v>43786.727777777778</v>
+      </c>
+      <c r="J13" s="43">
+        <v>43786.727777777778</v>
+      </c>
+      <c r="K13" s="49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="44">
+        <v>33703</v>
+      </c>
+      <c r="B14" s="44">
+        <v>15874</v>
+      </c>
+      <c r="C14" s="44">
+        <v>2.0191117172751099E+20</v>
+      </c>
+      <c r="D14" s="45">
+        <v>3</v>
+      </c>
+      <c r="E14" s="44">
+        <v>2219</v>
+      </c>
+      <c r="F14" s="44">
+        <v>2219</v>
+      </c>
+      <c r="G14" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="46">
+        <v>43786.727083333331</v>
+      </c>
+      <c r="J14" s="46">
+        <v>43786.727488425924</v>
+      </c>
+      <c r="K14" s="47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="38">
+        <v>33702</v>
+      </c>
+      <c r="B15" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C15" s="38">
+        <v>2.0191117172726101E+20</v>
+      </c>
+      <c r="D15" s="39">
+        <v>3</v>
+      </c>
+      <c r="E15" s="38">
+        <v>426</v>
+      </c>
+      <c r="F15" s="38">
+        <v>426</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="40">
+        <v>43786.727083333331</v>
+      </c>
+      <c r="J15" s="40">
+        <v>43786.727326388886</v>
+      </c>
+      <c r="K15" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="38">
+        <v>33701</v>
+      </c>
+      <c r="B16" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C16" s="38">
+        <v>2.0191117172712099E+20</v>
+      </c>
+      <c r="D16" s="39">
+        <v>3</v>
+      </c>
+      <c r="E16" s="38">
+        <v>1405</v>
+      </c>
+      <c r="F16" s="38">
+        <v>1405</v>
+      </c>
+      <c r="G16" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="40">
+        <v>43786.727083333331</v>
+      </c>
+      <c r="J16" s="40">
+        <v>43786.727118055554</v>
+      </c>
+      <c r="K16" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="38">
+        <v>33700</v>
+      </c>
+      <c r="B17" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C17" s="38">
+        <v>2.01911171726541E+20</v>
+      </c>
+      <c r="D17" s="39">
+        <v>3</v>
+      </c>
+      <c r="E17" s="38">
+        <v>390</v>
+      </c>
+      <c r="F17" s="38">
+        <v>390</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="40">
+        <v>43786.727083333331</v>
+      </c>
+      <c r="J17" s="40">
+        <v>43786.726909722223</v>
+      </c>
+      <c r="K17" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="38">
+        <v>33699</v>
+      </c>
+      <c r="B18" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C18" s="38">
+        <v>2.01911171737231E+20</v>
+      </c>
+      <c r="D18" s="39">
+        <v>2</v>
+      </c>
+      <c r="E18" s="38">
+        <v>307</v>
+      </c>
+      <c r="F18" s="38">
+        <v>307</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" s="40">
+        <v>43786.734027777777</v>
+      </c>
+      <c r="J18" s="40">
+        <v>43786.726631944446</v>
+      </c>
+      <c r="K18" s="50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="38">
+        <v>33698</v>
+      </c>
+      <c r="B19" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C19" s="38">
+        <v>2.0191117172612101E+20</v>
+      </c>
+      <c r="D19" s="39">
+        <v>2</v>
+      </c>
+      <c r="E19" s="38">
+        <v>128</v>
+      </c>
+      <c r="F19" s="38">
+        <v>128</v>
+      </c>
+      <c r="G19" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="40">
+        <v>43786.726388888892</v>
+      </c>
+      <c r="J19" s="40">
+        <v>43786.726481481484</v>
+      </c>
+      <c r="K19" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="38">
+        <v>33697</v>
+      </c>
+      <c r="B20" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C20" s="38">
+        <v>2.0191117172559099E+20</v>
+      </c>
+      <c r="D20" s="39">
+        <v>2</v>
+      </c>
+      <c r="E20" s="38">
+        <v>461</v>
+      </c>
+      <c r="F20" s="38">
+        <v>461</v>
+      </c>
+      <c r="G20" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="40">
+        <v>43786.726388888892</v>
+      </c>
+      <c r="J20" s="40">
+        <v>43786.726284722223</v>
+      </c>
+      <c r="K20" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="38">
+        <v>33696</v>
+      </c>
+      <c r="B21" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C21" s="38">
+        <v>2.0191117172543101E+20</v>
+      </c>
+      <c r="D21" s="39">
+        <v>2</v>
+      </c>
+      <c r="E21" s="38">
+        <v>140</v>
+      </c>
+      <c r="F21" s="38">
+        <v>140</v>
+      </c>
+      <c r="G21" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="40">
+        <v>43786.725694444445</v>
+      </c>
+      <c r="J21" s="40">
+        <v>43786.726018518515</v>
+      </c>
+      <c r="K21" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="38">
+        <v>33695</v>
+      </c>
+      <c r="B22" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C22" s="38">
+        <v>2.0191117172519099E+20</v>
+      </c>
+      <c r="D22" s="39">
+        <v>2</v>
+      </c>
+      <c r="E22" s="38">
+        <v>840</v>
+      </c>
+      <c r="F22" s="38">
+        <v>840</v>
+      </c>
+      <c r="G22" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="40">
+        <v>43786.725694444445</v>
+      </c>
+      <c r="J22" s="40">
+        <v>43786.725856481484</v>
+      </c>
+      <c r="K22" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="38">
+        <v>33694</v>
+      </c>
+      <c r="B23" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C23" s="38">
+        <v>2.01911171725061E+20</v>
+      </c>
+      <c r="D23" s="39">
+        <v>2</v>
+      </c>
+      <c r="E23" s="38">
+        <v>610</v>
+      </c>
+      <c r="F23" s="38">
+        <v>610</v>
+      </c>
+      <c r="G23" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="40">
+        <v>43786.725694444445</v>
+      </c>
+      <c r="J23" s="40">
+        <v>43786.725717592592</v>
+      </c>
+      <c r="K23" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="38">
+        <v>33693</v>
+      </c>
+      <c r="B24" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C24" s="38">
+        <v>2.01911171724541E+20</v>
+      </c>
+      <c r="D24" s="39">
+        <v>2</v>
+      </c>
+      <c r="E24" s="38">
+        <v>250</v>
+      </c>
+      <c r="F24" s="38">
+        <v>250</v>
+      </c>
+      <c r="G24" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="40">
+        <v>43786.725694444445</v>
+      </c>
+      <c r="J24" s="40">
+        <v>43786.725555555553</v>
+      </c>
+      <c r="K24" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="38">
+        <v>33692</v>
+      </c>
+      <c r="B25" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C25" s="38">
+        <v>2.01911171723411E+20</v>
+      </c>
+      <c r="D25" s="39">
+        <v>2</v>
+      </c>
+      <c r="E25" s="38">
+        <v>1012</v>
+      </c>
+      <c r="F25" s="38">
+        <v>1012</v>
+      </c>
+      <c r="G25" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="40">
+        <v>43786.724305555559</v>
+      </c>
+      <c r="J25" s="40">
+        <v>43786.724641203706</v>
+      </c>
+      <c r="K25" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="38">
+        <v>33691</v>
+      </c>
+      <c r="B26" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C26" s="38">
+        <v>2.0191117172314099E+20</v>
+      </c>
+      <c r="D26" s="39">
+        <v>2</v>
+      </c>
+      <c r="E26" s="38">
+        <v>410</v>
+      </c>
+      <c r="F26" s="38">
+        <v>410</v>
+      </c>
+      <c r="G26" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="40">
+        <v>43786.724305555559</v>
+      </c>
+      <c r="J26" s="40">
+        <v>43786.724224537036</v>
+      </c>
+      <c r="K26" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="38">
+        <v>33690</v>
+      </c>
+      <c r="B27" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C27" s="38">
+        <v>2.0191117172240099E+20</v>
+      </c>
+      <c r="D27" s="39">
+        <v>2</v>
+      </c>
+      <c r="E27" s="38">
+        <v>819</v>
+      </c>
+      <c r="F27" s="38">
+        <v>819</v>
+      </c>
+      <c r="G27" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="40">
+        <v>43786.723611111112</v>
+      </c>
+      <c r="J27" s="40">
+        <v>43786.723819444444</v>
+      </c>
+      <c r="K27" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="38">
+        <v>33689</v>
+      </c>
+      <c r="B28" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C28" s="38">
+        <v>2.01911171722101E+20</v>
+      </c>
+      <c r="D28" s="39">
+        <v>2</v>
+      </c>
+      <c r="E28" s="38">
+        <v>323</v>
+      </c>
+      <c r="F28" s="38">
+        <v>323</v>
+      </c>
+      <c r="G28" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="40">
+        <v>43786.723611111112</v>
+      </c>
+      <c r="J28" s="40">
+        <v>43786.723622685182</v>
+      </c>
+      <c r="K28" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="38">
+        <v>33688</v>
+      </c>
+      <c r="B29" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C29" s="38">
+        <v>2.01911171721521E+20</v>
+      </c>
+      <c r="D29" s="39">
+        <v>2</v>
+      </c>
+      <c r="E29" s="38">
+        <v>330</v>
+      </c>
+      <c r="F29" s="38">
+        <v>330</v>
+      </c>
+      <c r="G29" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="40">
+        <v>43786.722916666666</v>
+      </c>
+      <c r="J29" s="40">
+        <v>43786.723344907405</v>
+      </c>
+      <c r="K29" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="38">
+        <v>33687</v>
+      </c>
+      <c r="B30" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C30" s="38">
+        <v>2.0191117172129101E+20</v>
+      </c>
+      <c r="D30" s="39">
+        <v>2</v>
+      </c>
+      <c r="E30" s="38">
+        <v>180</v>
+      </c>
+      <c r="F30" s="38">
+        <v>180</v>
+      </c>
+      <c r="G30" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="40">
+        <v>43786.722916666666</v>
+      </c>
+      <c r="J30" s="40">
+        <v>43786.723171296297</v>
+      </c>
+      <c r="K30" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="38">
+        <v>33686</v>
+      </c>
+      <c r="B31" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C31" s="38">
+        <v>2.0191117172112101E+20</v>
+      </c>
+      <c r="D31" s="39">
+        <v>2</v>
+      </c>
+      <c r="E31" s="38">
+        <v>421</v>
+      </c>
+      <c r="F31" s="38">
+        <v>421</v>
+      </c>
+      <c r="G31" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="40">
+        <v>43786.722916666666</v>
+      </c>
+      <c r="J31" s="40">
+        <v>43786.722858796296</v>
+      </c>
+      <c r="K31" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="38">
+        <v>33685</v>
+      </c>
+      <c r="B32" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C32" s="38">
+        <v>2.0191117172046099E+20</v>
+      </c>
+      <c r="D32" s="39">
+        <v>2</v>
+      </c>
+      <c r="E32" s="38">
+        <v>857</v>
+      </c>
+      <c r="F32" s="38">
+        <v>857</v>
+      </c>
+      <c r="G32" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="40">
+        <v>43786.722222222219</v>
+      </c>
+      <c r="J32" s="40">
+        <v>43786.722384259258</v>
+      </c>
+      <c r="K32" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="41">
+        <v>33684</v>
+      </c>
+      <c r="B33" s="41">
+        <v>15874</v>
+      </c>
+      <c r="C33" s="41">
+        <v>2.0191117172001099E+20</v>
+      </c>
+      <c r="D33" s="42">
+        <v>2</v>
+      </c>
+      <c r="E33" s="41">
+        <v>689</v>
+      </c>
+      <c r="F33" s="41">
+        <v>689</v>
+      </c>
+      <c r="G33" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="43">
+        <v>43786.722222222219</v>
+      </c>
+      <c r="J33" s="43">
+        <v>43786.722118055557</v>
+      </c>
+      <c r="K33" s="49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="56">
+        <v>33683</v>
+      </c>
+      <c r="B34" s="56">
+        <v>15874</v>
+      </c>
+      <c r="C34" s="56">
+        <v>2.01911171719141E+20</v>
+      </c>
+      <c r="D34" s="57">
+        <v>2</v>
+      </c>
+      <c r="E34" s="56">
+        <v>239</v>
+      </c>
+      <c r="F34" s="56">
+        <v>239</v>
+      </c>
+      <c r="G34" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" s="58">
+        <v>43786.72152777778</v>
+      </c>
+      <c r="J34" s="58">
+        <v>43786.721562500003</v>
+      </c>
+      <c r="K34" s="59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="44">
+        <v>33672</v>
+      </c>
+      <c r="B35" s="44">
+        <v>15874</v>
+      </c>
+      <c r="C35" s="44">
+        <v>2.0191117095127099E+20</v>
+      </c>
+      <c r="D35" s="45">
+        <v>3</v>
+      </c>
+      <c r="E35" s="44">
+        <v>299</v>
+      </c>
+      <c r="F35" s="44">
+        <v>299</v>
+      </c>
+      <c r="G35" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="46">
+        <v>43786.410416666666</v>
+      </c>
+      <c r="J35" s="46">
+        <v>43786.410694444443</v>
+      </c>
+      <c r="K35" s="47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="38">
+        <v>33671</v>
+      </c>
+      <c r="B36" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C36" s="38">
+        <v>2.0191117095116099E+20</v>
+      </c>
+      <c r="D36" s="39">
+        <v>3</v>
+      </c>
+      <c r="E36" s="38">
+        <v>938</v>
+      </c>
+      <c r="F36" s="38">
+        <v>938</v>
+      </c>
+      <c r="G36" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" s="40">
+        <v>43786.410416666666</v>
+      </c>
+      <c r="J36" s="40">
+        <v>43786.410543981481</v>
+      </c>
+      <c r="K36" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="38">
+        <v>33670</v>
+      </c>
+      <c r="B37" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C37" s="38">
+        <v>2.0191117095105099E+20</v>
+      </c>
+      <c r="D37" s="39">
+        <v>2</v>
+      </c>
+      <c r="E37" s="38">
+        <v>103</v>
+      </c>
+      <c r="F37" s="38">
+        <v>103</v>
+      </c>
+      <c r="G37" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" s="40">
+        <v>43786.410416666666</v>
+      </c>
+      <c r="J37" s="40">
+        <v>43786.410416666666</v>
+      </c>
+      <c r="K37" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="38">
+        <v>33669</v>
+      </c>
+      <c r="B38" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C38" s="38">
+        <v>2.01911170950521E+20</v>
+      </c>
+      <c r="D38" s="39">
+        <v>3</v>
+      </c>
+      <c r="E38" s="38">
+        <v>1013</v>
+      </c>
+      <c r="F38" s="38">
+        <v>1013</v>
+      </c>
+      <c r="G38" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" s="40">
+        <v>43786.409722222219</v>
+      </c>
+      <c r="J38" s="40">
+        <v>43786.410277777781</v>
+      </c>
+      <c r="K38" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="38">
+        <v>33668</v>
+      </c>
+      <c r="B39" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C39" s="38">
+        <v>2.0191117095030099E+20</v>
+      </c>
+      <c r="D39" s="39">
+        <v>3</v>
+      </c>
+      <c r="E39" s="38">
+        <v>428</v>
+      </c>
+      <c r="F39" s="38">
+        <v>428</v>
+      </c>
+      <c r="G39" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" s="40">
+        <v>43786.409722222219</v>
+      </c>
+      <c r="J39" s="40">
+        <v>43786.410011574073</v>
+      </c>
+      <c r="K39" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="38">
+        <v>33667</v>
+      </c>
+      <c r="B40" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C40" s="38">
+        <v>2.0191117095019099E+20</v>
+      </c>
+      <c r="D40" s="39">
+        <v>2</v>
+      </c>
+      <c r="E40" s="38">
+        <v>205</v>
+      </c>
+      <c r="F40" s="38">
+        <v>205</v>
+      </c>
+      <c r="G40" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" s="40">
+        <v>43786.409722222219</v>
+      </c>
+      <c r="J40" s="40">
+        <v>43786.409884259258</v>
+      </c>
+      <c r="K40" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="38">
+        <v>33666</v>
+      </c>
+      <c r="B41" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C41" s="38">
+        <v>2.0191117095007099E+20</v>
+      </c>
+      <c r="D41" s="39">
+        <v>3</v>
+      </c>
+      <c r="E41" s="38">
+        <v>1798</v>
+      </c>
+      <c r="F41" s="38">
+        <v>1798</v>
+      </c>
+      <c r="G41" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" s="40">
+        <v>43786.409722222219</v>
+      </c>
+      <c r="J41" s="40">
+        <v>43786.409733796296</v>
+      </c>
+      <c r="K41" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="38">
+        <v>33665</v>
+      </c>
+      <c r="B42" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C42" s="38">
+        <v>2.01911170949541E+20</v>
+      </c>
+      <c r="D42" s="39">
+        <v>3</v>
+      </c>
+      <c r="E42" s="38">
+        <v>246</v>
+      </c>
+      <c r="F42" s="38">
+        <v>246</v>
+      </c>
+      <c r="G42" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" s="40">
+        <v>43786.40902777778</v>
+      </c>
+      <c r="J42" s="40">
+        <v>43786.409479166665</v>
+      </c>
+      <c r="K42" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="38">
+        <v>33664</v>
+      </c>
+      <c r="B43" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C43" s="38">
+        <v>2.0191117094924101E+20</v>
+      </c>
+      <c r="D43" s="39">
+        <v>3</v>
+      </c>
+      <c r="E43" s="38">
+        <v>627</v>
+      </c>
+      <c r="F43" s="38">
+        <v>627</v>
+      </c>
+      <c r="G43" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" s="40">
+        <v>43786.40902777778</v>
+      </c>
+      <c r="J43" s="40">
+        <v>43786.409247685187</v>
+      </c>
+      <c r="K43" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="38">
+        <v>33663</v>
+      </c>
+      <c r="B44" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C44" s="38">
+        <v>2.0191117094910099E+20</v>
+      </c>
+      <c r="D44" s="39">
+        <v>3</v>
+      </c>
+      <c r="E44" s="38">
+        <v>768</v>
+      </c>
+      <c r="F44" s="38">
+        <v>768</v>
+      </c>
+      <c r="G44" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I44" s="40">
+        <v>43786.40902777778</v>
+      </c>
+      <c r="J44" s="40">
+        <v>43786.409004629626</v>
+      </c>
+      <c r="K44" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="38">
+        <v>33661</v>
+      </c>
+      <c r="B45" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C45" s="38">
+        <v>2.0191117094849099E+20</v>
+      </c>
+      <c r="D45" s="39">
+        <v>3</v>
+      </c>
+      <c r="E45" s="38">
+        <v>1784</v>
+      </c>
+      <c r="F45" s="38">
+        <v>1784</v>
+      </c>
+      <c r="G45" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45" s="40">
+        <v>43786.408333333333</v>
+      </c>
+      <c r="J45" s="40">
+        <v>43786.408842592595</v>
+      </c>
+      <c r="K45" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="41">
+        <v>33660</v>
+      </c>
+      <c r="B46" s="41">
+        <v>15874</v>
+      </c>
+      <c r="C46" s="41">
+        <v>2.01911170948351E+20</v>
+      </c>
+      <c r="D46" s="42">
+        <v>3</v>
+      </c>
+      <c r="E46" s="41">
+        <v>443</v>
+      </c>
+      <c r="F46" s="41">
+        <v>443</v>
+      </c>
+      <c r="G46" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46" s="43">
+        <v>43786.408333333333</v>
+      </c>
+      <c r="J46" s="43">
+        <v>43786.408680555556</v>
+      </c>
+      <c r="K46" s="49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="44">
+        <v>33659</v>
+      </c>
+      <c r="B47" s="44">
+        <v>15874</v>
+      </c>
+      <c r="C47" s="44">
+        <v>2.0191117094820099E+20</v>
+      </c>
+      <c r="D47" s="45">
+        <v>3</v>
+      </c>
+      <c r="E47" s="44">
+        <v>1259</v>
+      </c>
+      <c r="F47" s="44">
+        <v>1259</v>
+      </c>
+      <c r="G47" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47" s="46">
+        <v>43786.408333333333</v>
+      </c>
+      <c r="J47" s="46">
+        <v>43786.408402777779</v>
+      </c>
+      <c r="K47" s="47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="38">
+        <v>33658</v>
+      </c>
+      <c r="B48" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C48" s="38">
+        <v>2.01911170947321E+20</v>
+      </c>
+      <c r="D48" s="39">
+        <v>3</v>
+      </c>
+      <c r="E48" s="38">
+        <v>910</v>
+      </c>
+      <c r="F48" s="38">
+        <v>910</v>
+      </c>
+      <c r="G48" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48" s="40">
+        <v>43786.407638888886</v>
+      </c>
+      <c r="J48" s="40">
+        <v>43786.407858796294</v>
+      </c>
+      <c r="K48" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="38">
+        <v>33657</v>
+      </c>
+      <c r="B49" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C49" s="38">
+        <v>2.01911170946471E+20</v>
+      </c>
+      <c r="D49" s="39">
+        <v>2</v>
+      </c>
+      <c r="E49" s="38">
+        <v>1418</v>
+      </c>
+      <c r="F49" s="38">
+        <v>1418</v>
+      </c>
+      <c r="G49" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I49" s="40">
+        <v>43786.406944444447</v>
+      </c>
+      <c r="J49" s="40">
+        <v>43786.407430555555</v>
+      </c>
+      <c r="K49" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="38">
+        <v>33656</v>
+      </c>
+      <c r="B50" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C50" s="38">
+        <v>2.0191117094623101E+20</v>
+      </c>
+      <c r="D50" s="39">
+        <v>3</v>
+      </c>
+      <c r="E50" s="38">
+        <v>452</v>
+      </c>
+      <c r="F50" s="38">
+        <v>452</v>
+      </c>
+      <c r="G50" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I50" s="40">
+        <v>43786.406944444447</v>
+      </c>
+      <c r="J50" s="40">
+        <v>43786.407175925924</v>
+      </c>
+      <c r="K50" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="38">
+        <v>33655</v>
+      </c>
+      <c r="B51" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C51" s="38">
+        <v>2.0191117094612101E+20</v>
+      </c>
+      <c r="D51" s="39">
+        <v>3</v>
+      </c>
+      <c r="E51" s="38">
+        <v>888</v>
+      </c>
+      <c r="F51" s="38">
+        <v>888</v>
+      </c>
+      <c r="G51" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" s="40">
+        <v>43786.406944444447</v>
+      </c>
+      <c r="J51" s="40">
+        <v>43786.407037037039</v>
+      </c>
+      <c r="K51" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="38">
+        <v>33654</v>
+      </c>
+      <c r="B52" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C52" s="38">
+        <v>2.01911170946011E+20</v>
+      </c>
+      <c r="D52" s="39">
+        <v>3</v>
+      </c>
+      <c r="E52" s="38">
+        <v>1076</v>
+      </c>
+      <c r="F52" s="38">
+        <v>1076</v>
+      </c>
+      <c r="G52" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I52" s="40">
+        <v>43786.406944444447</v>
+      </c>
+      <c r="J52" s="40">
+        <v>43786.406921296293</v>
+      </c>
+      <c r="K52" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="38">
+        <v>33653</v>
+      </c>
+      <c r="B53" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C53" s="38">
+        <v>2.01911170945501E+20</v>
+      </c>
+      <c r="D53" s="39">
+        <v>3</v>
+      </c>
+      <c r="E53" s="38">
+        <v>927</v>
+      </c>
+      <c r="F53" s="38">
+        <v>927</v>
+      </c>
+      <c r="G53" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I53" s="40">
+        <v>43786.40625</v>
+      </c>
+      <c r="J53" s="40">
+        <v>43786.406770833331</v>
+      </c>
+      <c r="K53" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="38">
+        <v>33652</v>
+      </c>
+      <c r="B54" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C54" s="38">
+        <v>2.0191117094538101E+20</v>
+      </c>
+      <c r="D54" s="39">
+        <v>3</v>
+      </c>
+      <c r="E54" s="38">
+        <v>214</v>
+      </c>
+      <c r="F54" s="38">
+        <v>214</v>
+      </c>
+      <c r="G54" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I54" s="40">
+        <v>43786.40625</v>
+      </c>
+      <c r="J54" s="40">
+        <v>43786.406643518516</v>
+      </c>
+      <c r="K54" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="38">
+        <v>33651</v>
+      </c>
+      <c r="B55" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C55" s="38">
+        <v>2.0191117094527101E+20</v>
+      </c>
+      <c r="D55" s="39">
+        <v>3</v>
+      </c>
+      <c r="E55" s="38">
+        <v>1567</v>
+      </c>
+      <c r="F55" s="38">
+        <v>1567</v>
+      </c>
+      <c r="G55" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I55" s="40">
+        <v>43786.40625</v>
+      </c>
+      <c r="J55" s="40">
+        <v>43786.406504629631</v>
+      </c>
+      <c r="K55" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="38">
+        <v>33650</v>
+      </c>
+      <c r="B56" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C56" s="38">
+        <v>2.0191117094514101E+20</v>
+      </c>
+      <c r="D56" s="39">
+        <v>3</v>
+      </c>
+      <c r="E56" s="38">
+        <v>1749</v>
+      </c>
+      <c r="F56" s="38">
+        <v>1749</v>
+      </c>
+      <c r="G56" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I56" s="40">
+        <v>43786.40625</v>
+      </c>
+      <c r="J56" s="40">
+        <v>43786.406365740739</v>
+      </c>
+      <c r="K56" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="38">
+        <v>33649</v>
+      </c>
+      <c r="B57" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C57" s="38">
+        <v>2.0191117094503101E+20</v>
+      </c>
+      <c r="D57" s="39">
+        <v>3</v>
+      </c>
+      <c r="E57" s="38">
+        <v>1260</v>
+      </c>
+      <c r="F57" s="38">
+        <v>1260</v>
+      </c>
+      <c r="G57" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I57" s="40">
+        <v>43786.40625</v>
+      </c>
+      <c r="J57" s="40">
+        <v>43786.406226851854</v>
+      </c>
+      <c r="K57" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="38">
+        <v>33648</v>
+      </c>
+      <c r="B58" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C58" s="38">
+        <v>2.0191117094451098E+20</v>
+      </c>
+      <c r="D58" s="39">
+        <v>3</v>
+      </c>
+      <c r="E58" s="38">
+        <v>252</v>
+      </c>
+      <c r="F58" s="38">
+        <v>252</v>
+      </c>
+      <c r="G58" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I58" s="40">
+        <v>43786.405555555553</v>
+      </c>
+      <c r="J58" s="40">
+        <v>43786.406087962961</v>
+      </c>
+      <c r="K58" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="38">
+        <v>33647</v>
+      </c>
+      <c r="B59" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C59" s="38">
+        <v>2.0191117094439099E+20</v>
+      </c>
+      <c r="D59" s="39">
+        <v>3</v>
+      </c>
+      <c r="E59" s="38">
+        <v>991</v>
+      </c>
+      <c r="F59" s="38">
+        <v>991</v>
+      </c>
+      <c r="G59" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I59" s="40">
+        <v>43786.405555555553</v>
+      </c>
+      <c r="J59" s="40">
+        <v>43786.405949074076</v>
+      </c>
+      <c r="K59" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="38">
+        <v>33646</v>
+      </c>
+      <c r="B60" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C60" s="38">
+        <v>2.0191117094428099E+20</v>
+      </c>
+      <c r="D60" s="39">
+        <v>3</v>
+      </c>
+      <c r="E60" s="38">
+        <v>853</v>
+      </c>
+      <c r="F60" s="38">
+        <v>853</v>
+      </c>
+      <c r="G60" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I60" s="40">
+        <v>43786.405555555553</v>
+      </c>
+      <c r="J60" s="40">
+        <v>43786.405810185184</v>
+      </c>
+      <c r="K60" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="38">
+        <v>33645</v>
+      </c>
+      <c r="B61" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C61" s="38">
+        <v>2.01911170944141E+20</v>
+      </c>
+      <c r="D61" s="39">
+        <v>3</v>
+      </c>
+      <c r="E61" s="38">
+        <v>370</v>
+      </c>
+      <c r="F61" s="38">
+        <v>370</v>
+      </c>
+      <c r="G61" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H61" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I61" s="40">
+        <v>43786.405555555553</v>
+      </c>
+      <c r="J61" s="40">
+        <v>43786.405648148146</v>
+      </c>
+      <c r="K61" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="38">
+        <v>33644</v>
+      </c>
+      <c r="B62" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C62" s="38">
+        <v>2.01911170944021E+20</v>
+      </c>
+      <c r="D62" s="39">
+        <v>3</v>
+      </c>
+      <c r="E62" s="38">
+        <v>786</v>
+      </c>
+      <c r="F62" s="38">
+        <v>786</v>
+      </c>
+      <c r="G62" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I62" s="40">
+        <v>43786.405555555553</v>
+      </c>
+      <c r="J62" s="40">
+        <v>43786.40552083333</v>
+      </c>
+      <c r="K62" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="38">
+        <v>33643</v>
+      </c>
+      <c r="B63" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C63" s="38">
+        <v>2.0191117094350101E+20</v>
+      </c>
+      <c r="D63" s="39">
+        <v>3</v>
+      </c>
+      <c r="E63" s="38">
+        <v>1219</v>
+      </c>
+      <c r="F63" s="38">
+        <v>1219</v>
+      </c>
+      <c r="G63" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H63" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I63" s="40">
+        <v>43786.404861111114</v>
+      </c>
+      <c r="J63" s="40">
+        <v>43786.405393518522</v>
+      </c>
+      <c r="K63" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="38">
+        <v>33642</v>
+      </c>
+      <c r="B64" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C64" s="38">
+        <v>2.0191117094339101E+20</v>
+      </c>
+      <c r="D64" s="39">
+        <v>3</v>
+      </c>
+      <c r="E64" s="38">
+        <v>1007</v>
+      </c>
+      <c r="F64" s="38">
+        <v>1007</v>
+      </c>
+      <c r="G64" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I64" s="40">
+        <v>43786.404861111114</v>
+      </c>
+      <c r="J64" s="40">
+        <v>43786.40525462963</v>
+      </c>
+      <c r="K64" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="38">
+        <v>33641</v>
+      </c>
+      <c r="B65" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C65" s="38">
+        <v>2.0191117094326102E+20</v>
+      </c>
+      <c r="D65" s="39">
+        <v>2</v>
+      </c>
+      <c r="E65" s="38">
+        <v>747</v>
+      </c>
+      <c r="F65" s="38">
+        <v>747</v>
+      </c>
+      <c r="G65" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H65" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I65" s="40">
+        <v>43786.404861111114</v>
+      </c>
+      <c r="J65" s="40">
+        <v>43786.405127314814</v>
+      </c>
+      <c r="K65" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="41">
+        <v>33640</v>
+      </c>
+      <c r="B66" s="41">
+        <v>15874</v>
+      </c>
+      <c r="C66" s="41">
+        <v>2.0191117094315101E+20</v>
+      </c>
+      <c r="D66" s="42">
+        <v>3</v>
+      </c>
+      <c r="E66" s="41">
+        <v>529</v>
+      </c>
+      <c r="F66" s="41">
+        <v>529</v>
+      </c>
+      <c r="G66" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="I66" s="43">
+        <v>43786.404861111114</v>
+      </c>
+      <c r="J66" s="43">
+        <v>43786.404976851853</v>
+      </c>
+      <c r="K66" s="49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="44">
+        <v>33639</v>
+      </c>
+      <c r="B67" s="44">
+        <v>15874</v>
+      </c>
+      <c r="C67" s="44">
+        <v>2.0191117094304101E+20</v>
+      </c>
+      <c r="D67" s="45">
+        <v>3</v>
+      </c>
+      <c r="E67" s="44">
+        <v>488</v>
+      </c>
+      <c r="F67" s="44">
+        <v>488</v>
+      </c>
+      <c r="G67" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H67" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="I67" s="46">
+        <v>43786.404861111114</v>
+      </c>
+      <c r="J67" s="46">
+        <v>43786.40483796296</v>
+      </c>
+      <c r="K67" s="47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="38">
+        <v>33638</v>
+      </c>
+      <c r="B68" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C68" s="38">
+        <v>2.0191117094252102E+20</v>
+      </c>
+      <c r="D68" s="39">
+        <v>3</v>
+      </c>
+      <c r="E68" s="38">
+        <v>538.9</v>
+      </c>
+      <c r="F68" s="38">
+        <v>538.9</v>
+      </c>
+      <c r="G68" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H68" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I68" s="40">
+        <v>43786.404166666667</v>
+      </c>
+      <c r="J68" s="40">
+        <v>43786.404710648145</v>
+      </c>
+      <c r="K68" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="38">
+        <v>33637</v>
+      </c>
+      <c r="B69" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C69" s="38">
+        <v>2.0191117094240099E+20</v>
+      </c>
+      <c r="D69" s="39">
+        <v>3</v>
+      </c>
+      <c r="E69" s="38">
+        <v>698.9</v>
+      </c>
+      <c r="F69" s="38">
+        <v>698.9</v>
+      </c>
+      <c r="G69" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H69" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I69" s="40">
+        <v>43786.404166666667</v>
+      </c>
+      <c r="J69" s="40">
+        <v>43786.404548611114</v>
+      </c>
+      <c r="K69" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="38">
+        <v>33636</v>
+      </c>
+      <c r="B70" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C70" s="38">
+        <v>2.0191117094213101E+20</v>
+      </c>
+      <c r="D70" s="39">
+        <v>3</v>
+      </c>
+      <c r="E70" s="38">
+        <v>1015</v>
+      </c>
+      <c r="F70" s="38">
+        <v>1015</v>
+      </c>
+      <c r="G70" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H70" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I70" s="40">
+        <v>43786.404166666667</v>
+      </c>
+      <c r="J70" s="40">
+        <v>43786.404236111113</v>
+      </c>
+      <c r="K70" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="38">
+        <v>33635</v>
+      </c>
+      <c r="B71" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C71" s="38">
+        <v>2.01911170941581E+20</v>
+      </c>
+      <c r="D71" s="39">
+        <v>3</v>
+      </c>
+      <c r="E71" s="38">
+        <v>1498</v>
+      </c>
+      <c r="F71" s="38">
+        <v>1498</v>
+      </c>
+      <c r="G71" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H71" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" s="40">
+        <v>43786.404166666667</v>
+      </c>
+      <c r="J71" s="40">
+        <v>43786.404108796298</v>
+      </c>
+      <c r="K71" s="50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="38">
+        <v>33634</v>
+      </c>
+      <c r="B72" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C72" s="38">
+        <v>2.0191117094148099E+20</v>
+      </c>
+      <c r="D72" s="39">
+        <v>3</v>
+      </c>
+      <c r="E72" s="38">
+        <v>736.9</v>
+      </c>
+      <c r="F72" s="38">
+        <v>736.9</v>
+      </c>
+      <c r="G72" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H72" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I72" s="40">
+        <v>43786.40347222222</v>
+      </c>
+      <c r="J72" s="40">
+        <v>43786.403981481482</v>
+      </c>
+      <c r="K72" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="38">
+        <v>33633</v>
+      </c>
+      <c r="B73" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C73" s="38">
+        <v>2.0191117094138098E+20</v>
+      </c>
+      <c r="D73" s="39">
+        <v>3</v>
+      </c>
+      <c r="E73" s="38">
+        <v>796</v>
+      </c>
+      <c r="F73" s="38">
+        <v>796</v>
+      </c>
+      <c r="G73" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H73" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I73" s="40">
+        <v>43786.40347222222</v>
+      </c>
+      <c r="J73" s="40">
+        <v>43786.403865740744</v>
+      </c>
+      <c r="K73" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="38">
+        <v>33632</v>
+      </c>
+      <c r="B74" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C74" s="38">
+        <v>2.0191117094126099E+20</v>
+      </c>
+      <c r="D74" s="39">
+        <v>3</v>
+      </c>
+      <c r="E74" s="38">
+        <v>397</v>
+      </c>
+      <c r="F74" s="38">
+        <v>397</v>
+      </c>
+      <c r="G74" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H74" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I74" s="40">
+        <v>43786.40347222222</v>
+      </c>
+      <c r="J74" s="40">
+        <v>43786.403726851851</v>
+      </c>
+      <c r="K74" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="38">
+        <v>33631</v>
+      </c>
+      <c r="B75" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C75" s="38">
+        <v>2.0191117094114099E+20</v>
+      </c>
+      <c r="D75" s="39">
+        <v>2</v>
+      </c>
+      <c r="E75" s="38">
+        <v>337</v>
+      </c>
+      <c r="F75" s="38">
+        <v>337</v>
+      </c>
+      <c r="G75" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H75" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I75" s="40">
+        <v>43786.40347222222</v>
+      </c>
+      <c r="J75" s="40">
+        <v>43786.403564814813</v>
+      </c>
+      <c r="K75" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="38">
+        <v>33630</v>
+      </c>
+      <c r="B76" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C76" s="38">
+        <v>2.01911170941021E+20</v>
+      </c>
+      <c r="D76" s="39">
+        <v>2</v>
+      </c>
+      <c r="E76" s="38">
+        <v>100</v>
+      </c>
+      <c r="F76" s="38">
+        <v>100</v>
+      </c>
+      <c r="G76" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H76" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I76" s="40">
+        <v>43786.40347222222</v>
+      </c>
+      <c r="J76" s="40">
+        <v>43786.403449074074</v>
+      </c>
+      <c r="K76" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="38">
+        <v>33629</v>
+      </c>
+      <c r="B77" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C77" s="38">
+        <v>2.0191117094052099E+20</v>
+      </c>
+      <c r="D77" s="39">
+        <v>3</v>
+      </c>
+      <c r="E77" s="38">
+        <v>315</v>
+      </c>
+      <c r="F77" s="38">
+        <v>315</v>
+      </c>
+      <c r="G77" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H77" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I77" s="40">
+        <v>43786.402777777781</v>
+      </c>
+      <c r="J77" s="40">
+        <v>43786.403344907405</v>
+      </c>
+      <c r="K77" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="38">
+        <v>33628</v>
+      </c>
+      <c r="B78" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C78" s="38">
+        <v>2.0191117094042101E+20</v>
+      </c>
+      <c r="D78" s="39">
+        <v>3</v>
+      </c>
+      <c r="E78" s="38">
+        <v>1885</v>
+      </c>
+      <c r="F78" s="38">
+        <v>1885</v>
+      </c>
+      <c r="G78" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H78" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I78" s="40">
+        <v>43786.402777777781</v>
+      </c>
+      <c r="J78" s="40">
+        <v>43786.403217592589</v>
+      </c>
+      <c r="K78" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="38">
+        <v>33627</v>
+      </c>
+      <c r="B79" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C79" s="38">
+        <v>2.0191117094032101E+20</v>
+      </c>
+      <c r="D79" s="39">
+        <v>3</v>
+      </c>
+      <c r="E79" s="38">
+        <v>1482</v>
+      </c>
+      <c r="F79" s="38">
+        <v>1482</v>
+      </c>
+      <c r="G79" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H79" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I79" s="40">
+        <v>43786.402777777781</v>
+      </c>
+      <c r="J79" s="40">
+        <v>43786.403090277781</v>
+      </c>
+      <c r="K79" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="38">
+        <v>33626</v>
+      </c>
+      <c r="B80" s="38">
+        <v>15874</v>
+      </c>
+      <c r="C80" s="38">
+        <v>2.01911170940211E+20</v>
+      </c>
+      <c r="D80" s="39">
+        <v>3</v>
+      </c>
+      <c r="E80" s="38">
+        <v>817</v>
+      </c>
+      <c r="F80" s="38">
+        <v>817</v>
+      </c>
+      <c r="G80" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H80" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I80" s="40">
+        <v>43786.402777777781</v>
+      </c>
+      <c r="J80" s="40">
+        <v>43786.402951388889</v>
+      </c>
+      <c r="K80" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="41">
+        <v>33625</v>
+      </c>
+      <c r="B81" s="41">
+        <v>15874</v>
+      </c>
+      <c r="C81" s="41">
+        <v>2.0191117094008101E+20</v>
+      </c>
+      <c r="D81" s="42">
+        <v>3</v>
+      </c>
+      <c r="E81" s="41">
+        <v>598</v>
+      </c>
+      <c r="F81" s="41">
+        <v>598</v>
+      </c>
+      <c r="G81" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H81" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="I81" s="43">
+        <v>43786.402777777781</v>
+      </c>
+      <c r="J81" s="43">
+        <v>43786.402719907404</v>
+      </c>
+      <c r="K81" s="49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="44">
+        <v>33675</v>
+      </c>
+      <c r="B82" s="44">
+        <v>15874</v>
+      </c>
+      <c r="C82" s="44">
+        <v>2.01911170951481E+20</v>
+      </c>
+      <c r="D82" s="45">
+        <v>3</v>
+      </c>
+      <c r="E82" s="44">
+        <v>311</v>
+      </c>
+      <c r="F82" s="44">
+        <v>311</v>
+      </c>
+      <c r="G82" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H82" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="I82" s="46">
+        <v>43786.410416666666</v>
+      </c>
+      <c r="J82" s="46">
+        <v>43786.410937499997</v>
+      </c>
+      <c r="K82" s="47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="41">
+        <v>33673</v>
+      </c>
+      <c r="B83" s="41">
+        <v>15874</v>
+      </c>
+      <c r="C83" s="41">
+        <v>2.0191117095138099E+20</v>
+      </c>
+      <c r="D83" s="42">
+        <v>3</v>
+      </c>
+      <c r="E83" s="41">
+        <v>165</v>
+      </c>
+      <c r="F83" s="41">
+        <v>165</v>
+      </c>
+      <c r="G83" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H83" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="I83" s="43">
+        <v>43786.410416666666</v>
+      </c>
+      <c r="J83" s="43">
+        <v>43786.410810185182</v>
+      </c>
+      <c r="K83" s="49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F84">
+        <f>SUM(F2:F83)</f>
+        <v>59906.500000000007</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId1" display="javascript:;" xr:uid="{33C005A8-171D-4743-991E-246C8FA87CEE}"/>
+    <hyperlink ref="K3" r:id="rId2" display="javascript:;" xr:uid="{93D978FB-47F2-446D-B2A0-BEFECEA7F8E5}"/>
+    <hyperlink ref="K4" r:id="rId3" display="javascript:;" xr:uid="{B4BAEDD2-8424-4ED7-B2CE-A88E9DCBD380}"/>
+    <hyperlink ref="K5" r:id="rId4" display="javascript:;" xr:uid="{4D09AC2F-4CE0-40D8-89B1-2C2DE19EEFD7}"/>
+    <hyperlink ref="K6" r:id="rId5" display="javascript:;" xr:uid="{8851BE4F-A977-4108-8B46-BDF6391FB8DC}"/>
+    <hyperlink ref="K7" r:id="rId6" display="javascript:;" xr:uid="{AB61F037-D729-4B2C-8FC0-1F21A19BD534}"/>
+    <hyperlink ref="K8" r:id="rId7" display="javascript:;" xr:uid="{207A88E2-77FA-4177-9287-7D6F6C3E89E8}"/>
+    <hyperlink ref="K9" r:id="rId8" display="javascript:;" xr:uid="{86FE9519-D45B-4011-8F21-7495D224C465}"/>
+    <hyperlink ref="K10" r:id="rId9" display="javascript:;" xr:uid="{FD95559D-75E5-4F4F-9CB1-883F223A43E0}"/>
+    <hyperlink ref="K11" r:id="rId10" display="javascript:;" xr:uid="{38D22FEB-C5D1-49E6-9446-222694659F48}"/>
+    <hyperlink ref="K12" r:id="rId11" display="javascript:;" xr:uid="{6E048116-C595-47BC-B41B-0E498F1C0655}"/>
+    <hyperlink ref="K13" r:id="rId12" display="javascript:;" xr:uid="{31A012D9-9246-41D5-8B4C-FA048E68FD2E}"/>
+    <hyperlink ref="K14" r:id="rId13" display="javascript:;" xr:uid="{AE46402C-0392-4774-A833-7410330ABE5D}"/>
+    <hyperlink ref="K15" r:id="rId14" display="javascript:;" xr:uid="{3A80ABD6-EEB7-40FA-84CA-327B3D0EB9F5}"/>
+    <hyperlink ref="K16" r:id="rId15" display="javascript:;" xr:uid="{360C9724-4336-41F3-978B-04445AE7B9A2}"/>
+    <hyperlink ref="K17" r:id="rId16" display="javascript:;" xr:uid="{28A35850-4CCC-4556-8FF5-D54173A78663}"/>
+    <hyperlink ref="K19" r:id="rId17" display="javascript:;" xr:uid="{008FF2BC-DA53-4E00-8991-F97DE988203C}"/>
+    <hyperlink ref="K20" r:id="rId18" display="javascript:;" xr:uid="{D62FEA0D-C406-4A22-8ACA-573AC45CDABF}"/>
+    <hyperlink ref="K21" r:id="rId19" display="javascript:;" xr:uid="{ECF4BC29-DFDE-4511-B7AC-2411D2B2AF28}"/>
+    <hyperlink ref="K22" r:id="rId20" display="javascript:;" xr:uid="{A48E85BA-13AC-4988-B9A6-75F11B5218B4}"/>
+    <hyperlink ref="K23" r:id="rId21" display="javascript:;" xr:uid="{E7D49AAA-1577-4F99-BB23-F707C68F7CD3}"/>
+    <hyperlink ref="K24" r:id="rId22" display="javascript:;" xr:uid="{E6D111D0-CAAC-4C8C-93BD-D2B98CA8C881}"/>
+    <hyperlink ref="K25" r:id="rId23" display="javascript:;" xr:uid="{74298F60-CFEF-4C3C-A597-6F2A93423F31}"/>
+    <hyperlink ref="K26" r:id="rId24" display="javascript:;" xr:uid="{64FC2DBE-119E-46DF-B884-F63169BBC740}"/>
+    <hyperlink ref="K27" r:id="rId25" display="javascript:;" xr:uid="{34178BC3-01FD-4A0E-933C-936E9FBCCB20}"/>
+    <hyperlink ref="K28" r:id="rId26" display="javascript:;" xr:uid="{D71FA063-C9F7-4755-893D-CCD5133AE562}"/>
+    <hyperlink ref="K29" r:id="rId27" display="javascript:;" xr:uid="{AD99FB0D-36D1-485D-B078-2CFE20792E19}"/>
+    <hyperlink ref="K30" r:id="rId28" display="javascript:;" xr:uid="{BB6FD501-BACA-4B56-BCE6-897F21487452}"/>
+    <hyperlink ref="K31" r:id="rId29" display="javascript:;" xr:uid="{EF066CEB-47A0-4435-9A37-4F6095C7E46C}"/>
+    <hyperlink ref="K32" r:id="rId30" display="javascript:;" xr:uid="{333800D5-6765-4A27-ADE6-ED233B1A90C1}"/>
+    <hyperlink ref="K33" r:id="rId31" display="javascript:;" xr:uid="{8DEAE155-51DE-41BC-87F0-03B888B964F0}"/>
+    <hyperlink ref="K34" r:id="rId32" display="javascript:;" xr:uid="{0CEFE7F4-E9BC-4AAD-912D-9DA5DF5148AA}"/>
+    <hyperlink ref="K35" r:id="rId33" display="javascript:;" xr:uid="{4DCAB87C-D558-4DD2-9D30-26529E34882B}"/>
+    <hyperlink ref="K36" r:id="rId34" display="javascript:;" xr:uid="{2B7FFBFE-D25A-43FF-AF93-125D48C24056}"/>
+    <hyperlink ref="K37" r:id="rId35" display="javascript:;" xr:uid="{889CC490-4CC2-4642-8B66-592C4B0C42A2}"/>
+    <hyperlink ref="K38" r:id="rId36" display="javascript:;" xr:uid="{6B45BBAF-E5BE-4C5F-B202-33D7D98AEB86}"/>
+    <hyperlink ref="K39" r:id="rId37" display="javascript:;" xr:uid="{57D791BA-A861-46C8-A140-E297EBDA62FA}"/>
+    <hyperlink ref="K40" r:id="rId38" display="javascript:;" xr:uid="{063A1999-39B3-4F02-BFC9-03CE1DB06FCC}"/>
+    <hyperlink ref="K41" r:id="rId39" display="javascript:;" xr:uid="{516FFA44-6E18-46A0-8B5B-C0503E116BA0}"/>
+    <hyperlink ref="K42" r:id="rId40" display="javascript:;" xr:uid="{0D1043F8-0BD6-42DB-9108-82BF26DEC8BE}"/>
+    <hyperlink ref="K43" r:id="rId41" display="javascript:;" xr:uid="{33F25985-7CFE-43F6-A0DC-F7A910F21C3E}"/>
+    <hyperlink ref="K44" r:id="rId42" display="javascript:;" xr:uid="{B32115AA-0FE2-4084-B18C-ED9A80EFB305}"/>
+    <hyperlink ref="K45" r:id="rId43" display="javascript:;" xr:uid="{C58CDCE4-5728-4971-A193-C1F22130A238}"/>
+    <hyperlink ref="K46" r:id="rId44" display="javascript:;" xr:uid="{8090CEE5-C5CD-4D35-A361-C1BB851C436F}"/>
+    <hyperlink ref="K47" r:id="rId45" display="javascript:;" xr:uid="{4520D8F1-E539-4F87-9221-E9E8ADBB28FD}"/>
+    <hyperlink ref="K48" r:id="rId46" display="javascript:;" xr:uid="{B9AF70C3-95A2-4032-97C2-030570DF1754}"/>
+    <hyperlink ref="K49" r:id="rId47" display="javascript:;" xr:uid="{101581C6-5A35-4C50-8E2B-E56C9A02BC17}"/>
+    <hyperlink ref="K50" r:id="rId48" display="javascript:;" xr:uid="{47584323-8BF4-41B1-8ECF-AE6EB2F9711B}"/>
+    <hyperlink ref="K51" r:id="rId49" display="javascript:;" xr:uid="{1276E433-0974-42B4-8D11-45502B3535A5}"/>
+    <hyperlink ref="K52" r:id="rId50" display="javascript:;" xr:uid="{C9FEF02F-2718-44CA-AEB7-734865F6F1D8}"/>
+    <hyperlink ref="K53" r:id="rId51" display="javascript:;" xr:uid="{05944C7C-70F2-4900-ADFA-2164250CAC95}"/>
+    <hyperlink ref="K54" r:id="rId52" display="javascript:;" xr:uid="{D4EEEB02-6520-4FF3-8A4A-5342979783E7}"/>
+    <hyperlink ref="K55" r:id="rId53" display="javascript:;" xr:uid="{C6F01CA4-5B75-4635-A121-2CD7616744A0}"/>
+    <hyperlink ref="K56" r:id="rId54" display="javascript:;" xr:uid="{2B2022E5-9230-4C04-897D-700B535FFFED}"/>
+    <hyperlink ref="K57" r:id="rId55" display="javascript:;" xr:uid="{7DD9AADD-0127-4269-8CB7-6685BB187933}"/>
+    <hyperlink ref="K58" r:id="rId56" display="javascript:;" xr:uid="{6E07602B-57C2-480C-A60B-720836C25DD9}"/>
+    <hyperlink ref="K59" r:id="rId57" display="javascript:;" xr:uid="{7162C8D5-DEB5-46C1-B365-3C4310458F94}"/>
+    <hyperlink ref="K60" r:id="rId58" display="javascript:;" xr:uid="{05572F58-100D-4751-BF3E-8B781B171C5C}"/>
+    <hyperlink ref="K61" r:id="rId59" display="javascript:;" xr:uid="{BA2C5357-6CA0-4916-9972-7D4A8D620F1C}"/>
+    <hyperlink ref="K62" r:id="rId60" display="javascript:;" xr:uid="{0887B4BB-AA18-4C5E-A0A3-36AA6AEA0EC9}"/>
+    <hyperlink ref="K63" r:id="rId61" display="javascript:;" xr:uid="{C9976573-C8F6-47D9-A76C-BE90DD977691}"/>
+    <hyperlink ref="K64" r:id="rId62" display="javascript:;" xr:uid="{61FE00CD-ABED-46CE-95BF-73580CB06915}"/>
+    <hyperlink ref="K65" r:id="rId63" display="javascript:;" xr:uid="{347C34AF-3E07-414F-8A40-38F06C5221C7}"/>
+    <hyperlink ref="K66" r:id="rId64" display="javascript:;" xr:uid="{35526660-F407-40DC-9D36-771FDFC5DA06}"/>
+    <hyperlink ref="K67" r:id="rId65" display="javascript:;" xr:uid="{58641F79-4BC6-4EAC-AE7E-1454FFF6C535}"/>
+    <hyperlink ref="K68" r:id="rId66" display="javascript:;" xr:uid="{3271CD1D-C5D7-4C85-B385-538D1FD47D36}"/>
+    <hyperlink ref="K69" r:id="rId67" display="javascript:;" xr:uid="{C82195CB-EE7E-452D-BF7D-39C4FC2B8E53}"/>
+    <hyperlink ref="K70" r:id="rId68" display="javascript:;" xr:uid="{87D3C42F-A4EF-468A-9171-36DDAE4CB205}"/>
+    <hyperlink ref="K72" r:id="rId69" display="javascript:;" xr:uid="{709882E6-76F4-4A4F-B9CD-45354B62BA03}"/>
+    <hyperlink ref="K73" r:id="rId70" display="javascript:;" xr:uid="{0CDE6A44-A3CE-4A0A-B4D6-E75477BC3322}"/>
+    <hyperlink ref="K74" r:id="rId71" display="javascript:;" xr:uid="{181ABE86-6EBC-458A-980D-C078BBBCDF8B}"/>
+    <hyperlink ref="K75" r:id="rId72" display="javascript:;" xr:uid="{9638A2AD-F59E-4FDF-B032-914C163CEB1D}"/>
+    <hyperlink ref="K76" r:id="rId73" display="javascript:;" xr:uid="{39CDDED6-28D0-40A4-B3BD-AF1652DC4EF1}"/>
+    <hyperlink ref="K77" r:id="rId74" display="javascript:;" xr:uid="{27D7C3BE-E3C5-475F-AFE3-C08684A4B380}"/>
+    <hyperlink ref="K78" r:id="rId75" display="javascript:;" xr:uid="{9CB5DBAF-C86F-4E77-BBBB-68AA76BFB03C}"/>
+    <hyperlink ref="K79" r:id="rId76" display="javascript:;" xr:uid="{5B84D943-AABA-4470-876E-68DB3D3BB7D5}"/>
+    <hyperlink ref="K80" r:id="rId77" display="javascript:;" xr:uid="{93F72D7A-D668-4ABA-816B-D7AA7A955BBF}"/>
+    <hyperlink ref="K81" r:id="rId78" display="javascript:;" xr:uid="{29BA4F86-63F8-4382-83D5-5E5536AD4708}"/>
+    <hyperlink ref="K82" r:id="rId79" display="javascript:;" xr:uid="{027E869F-A8B4-43D7-B0D1-9618B46023BB}"/>
+    <hyperlink ref="K83" r:id="rId80" display="javascript:;" xr:uid="{6B50F8BF-10AE-4F3F-9F7C-3F3BC06ABAC6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId81"/>
 </worksheet>
 </file>
 
